--- a/LegacyCode/NPL 평가 Report 요건정의.xlsx
+++ b/LegacyCode/NPL 평가 Report 요건정의.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\코발틱스\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\NPLProcess\LegacyCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64276C85-92BD-4BCA-9BD4-81864DE0F6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84727E56-E988-4BC4-8014-BE575B75C093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{4483C400-F9C6-4609-B8A4-33F5B462F3CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4483C400-F9C6-4609-B8A4-33F5B462F3CF}"/>
   </bookViews>
   <sheets>
     <sheet name="화면요건리스트" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="425">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2108,11 +2108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Output_인포통계상 요건에 맞는 평균치를 자동으로 출력
--&gt;요건은 통계낙찰가율 sheet에 기재</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"Cover" C3에 입력된 매각기관 값 자동입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2433,8 +2428,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>* 같은 행에 있으면 모두 찾아 달라는 뜻입니다</t>
+    <t>Output_인포통계상 요건에 맞는 평균치를 자동으로 출력
+-&gt;낙찰가율은 표가 조회되는데, 그 중 선정 요건은 (1) 낙찰 건수가 5개 이상이면서 (2) 낙찰가율이 100% 이하인 경우. 순환방식은 (1) 동 -&gt; 구 -&gt; 시 (2) 3개월 -&gt; 6개월 -&gt; 1년 순으로 (2)부터 순환하고, 해당 동에 선정대상 없으면 구로 넘어가는 방식</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공장</t>
+  </si>
+  <si>
+    <t>* 소분류의 경우 같은 행에 있으면 모두 찾아 달라는 뜻입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주택</t>
+  </si>
+  <si>
+    <t>집합건물</t>
+  </si>
+  <si>
+    <t>특수부동산</t>
+  </si>
+  <si>
+    <t>토지</t>
   </si>
 </sst>
 </file>
@@ -3745,7 +3768,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="482">
+  <cellXfs count="483">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4974,6 +4997,248 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="18" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="32" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="33" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="8" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="8" borderId="54" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="8" borderId="35" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="60" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="6" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="3" borderId="14" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="3" borderId="15" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -4986,12 +5251,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="3" borderId="14" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="32" fillId="3" borderId="15" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -5008,241 +5267,8 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="60" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="6" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="8" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="8" borderId="54" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="8" borderId="35" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="32" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="33" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -5311,7 +5337,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6087325" cy="8630854"/>
+          <a:ext cx="5968991" cy="8461869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5354,8 +5380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="206188" y="1093694"/>
-          <a:ext cx="4086795" cy="924054"/>
+          <a:off x="206188" y="1063811"/>
+          <a:ext cx="3997148" cy="886702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -34441,19 +34467,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F1540D-1F28-480C-99FE-7CFAA5BE80E2}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="364" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="364" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="81.625" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" customWidth="1"/>
+    <col min="4" max="4" width="81.58203125" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34528,7 +34554,7 @@
         <v>284</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -34543,7 +34569,7 @@
         <v>285</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -34558,7 +34584,7 @@
         <v>286</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -34573,7 +34599,7 @@
         <v>287</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -34588,7 +34614,7 @@
         <v>293</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -34693,7 +34719,7 @@
         <v>296</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -34768,7 +34794,7 @@
         <v>304</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -34783,7 +34809,7 @@
         <v>305</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -34801,7 +34827,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33">
+    <row r="24" spans="1:4" ht="34">
       <c r="A24" s="363">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -34816,7 +34842,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="33">
+    <row r="25" spans="1:4" ht="34">
       <c r="A25" s="363">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -34831,7 +34857,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="33">
+    <row r="26" spans="1:4" ht="34">
       <c r="A26" s="363">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -34846,7 +34872,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="33">
+    <row r="27" spans="1:4" ht="34">
       <c r="A27" s="363">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -34903,10 +34929,10 @@
         <v>317</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="33">
+    <row r="31" spans="1:4">
       <c r="A31" s="363">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -34930,10 +34956,10 @@
         <v>268</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -34945,10 +34971,10 @@
         <v>268</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -34960,10 +34986,10 @@
         <v>268</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -34975,10 +35001,10 @@
         <v>268</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -34990,10 +35016,10 @@
         <v>268</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -35005,10 +35031,10 @@
         <v>268</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -35020,10 +35046,10 @@
         <v>268</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -35035,10 +35061,10 @@
         <v>268</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -35050,10 +35076,10 @@
         <v>268</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -35071,7 +35097,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="33">
+    <row r="42" spans="1:4" ht="34">
       <c r="A42" s="363">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -35126,7 +35152,7 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -35138,10 +35164,10 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="33">
+    <row r="47" spans="1:4" ht="34">
       <c r="A47" s="363">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -35153,7 +35179,7 @@
         <v>318</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -35186,7 +35212,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="87.6" customHeight="1">
+    <row r="50" spans="1:4" ht="87.65" customHeight="1">
       <c r="A50" s="363">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -35198,7 +35224,7 @@
         <v>341</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -35216,7 +35242,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="33">
+    <row r="52" spans="1:4" ht="34">
       <c r="A52" s="363">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -35225,13 +35251,13 @@
         <v>268</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="33">
+    <row r="53" spans="1:4" ht="34">
       <c r="A53" s="363">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -35240,13 +35266,13 @@
         <v>268</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="33">
+    <row r="54" spans="1:4" ht="34">
       <c r="A54" s="363">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -35291,7 +35317,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="33">
+    <row r="57" spans="1:4" ht="34">
       <c r="A57" s="363">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -35306,7 +35332,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="66">
+    <row r="58" spans="1:4" ht="68">
       <c r="A58" s="363">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -35318,7 +35344,7 @@
         <v>320</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -35348,7 +35374,7 @@
         <v>324</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -35363,7 +35389,7 @@
         <v>327</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -35408,10 +35434,10 @@
         <v>344</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="33">
+    <row r="65" spans="1:4" ht="68">
       <c r="A65" s="366">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -35423,7 +35449,7 @@
         <v>332</v>
       </c>
       <c r="D65" s="368" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="150" customHeight="1">
@@ -35438,10 +35464,10 @@
         <v>329</v>
       </c>
       <c r="D66" s="368" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="33">
+    <row r="67" spans="1:4" ht="34">
       <c r="A67" s="366">
         <f t="shared" ref="A67:A68" si="1">ROW(A67)-1</f>
         <v>66</v>
@@ -35468,7 +35494,7 @@
         <v>331</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -35484,10 +35510,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35503,10 +35529,10 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="5.75" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="8" customWidth="1"/>
@@ -35514,9 +35540,9 @@
     <col min="4" max="8" width="8.75" style="8"/>
     <col min="9" max="10" width="8.75" style="8" customWidth="1"/>
     <col min="11" max="13" width="8.75" style="8"/>
-    <col min="14" max="14" width="11.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.08203125" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="8.75" style="9"/>
-    <col min="17" max="17" width="14.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.58203125" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="8.75" style="9"/>
     <col min="23" max="257" width="8.75" style="8"/>
     <col min="258" max="258" width="5.75" style="8" customWidth="1"/>
@@ -35525,9 +35551,9 @@
     <col min="265" max="265" width="12.25" style="8" customWidth="1"/>
     <col min="266" max="266" width="7.75" style="8" customWidth="1"/>
     <col min="267" max="269" width="8.75" style="8"/>
-    <col min="270" max="270" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="271" max="272" width="8.75" style="8"/>
-    <col min="273" max="273" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="274" max="513" width="8.75" style="8"/>
     <col min="514" max="514" width="5.75" style="8" customWidth="1"/>
     <col min="515" max="515" width="14.25" style="8" customWidth="1"/>
@@ -35535,9 +35561,9 @@
     <col min="521" max="521" width="12.25" style="8" customWidth="1"/>
     <col min="522" max="522" width="7.75" style="8" customWidth="1"/>
     <col min="523" max="525" width="8.75" style="8"/>
-    <col min="526" max="526" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="527" max="528" width="8.75" style="8"/>
-    <col min="529" max="529" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="530" max="769" width="8.75" style="8"/>
     <col min="770" max="770" width="5.75" style="8" customWidth="1"/>
     <col min="771" max="771" width="14.25" style="8" customWidth="1"/>
@@ -35545,9 +35571,9 @@
     <col min="777" max="777" width="12.25" style="8" customWidth="1"/>
     <col min="778" max="778" width="7.75" style="8" customWidth="1"/>
     <col min="779" max="781" width="8.75" style="8"/>
-    <col min="782" max="782" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="782" max="782" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="783" max="784" width="8.75" style="8"/>
-    <col min="785" max="785" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="785" max="785" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="786" max="1025" width="8.75" style="8"/>
     <col min="1026" max="1026" width="5.75" style="8" customWidth="1"/>
     <col min="1027" max="1027" width="14.25" style="8" customWidth="1"/>
@@ -35555,9 +35581,9 @@
     <col min="1033" max="1033" width="12.25" style="8" customWidth="1"/>
     <col min="1034" max="1034" width="7.75" style="8" customWidth="1"/>
     <col min="1035" max="1037" width="8.75" style="8"/>
-    <col min="1038" max="1038" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1038" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1039" max="1040" width="8.75" style="8"/>
-    <col min="1041" max="1041" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1041" max="1041" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1042" max="1281" width="8.75" style="8"/>
     <col min="1282" max="1282" width="5.75" style="8" customWidth="1"/>
     <col min="1283" max="1283" width="14.25" style="8" customWidth="1"/>
@@ -35565,9 +35591,9 @@
     <col min="1289" max="1289" width="12.25" style="8" customWidth="1"/>
     <col min="1290" max="1290" width="7.75" style="8" customWidth="1"/>
     <col min="1291" max="1293" width="8.75" style="8"/>
-    <col min="1294" max="1294" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1294" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1295" max="1296" width="8.75" style="8"/>
-    <col min="1297" max="1297" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1297" max="1297" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1298" max="1537" width="8.75" style="8"/>
     <col min="1538" max="1538" width="5.75" style="8" customWidth="1"/>
     <col min="1539" max="1539" width="14.25" style="8" customWidth="1"/>
@@ -35575,9 +35601,9 @@
     <col min="1545" max="1545" width="12.25" style="8" customWidth="1"/>
     <col min="1546" max="1546" width="7.75" style="8" customWidth="1"/>
     <col min="1547" max="1549" width="8.75" style="8"/>
-    <col min="1550" max="1550" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1550" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1551" max="1552" width="8.75" style="8"/>
-    <col min="1553" max="1553" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1553" max="1553" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1554" max="1793" width="8.75" style="8"/>
     <col min="1794" max="1794" width="5.75" style="8" customWidth="1"/>
     <col min="1795" max="1795" width="14.25" style="8" customWidth="1"/>
@@ -35585,9 +35611,9 @@
     <col min="1801" max="1801" width="12.25" style="8" customWidth="1"/>
     <col min="1802" max="1802" width="7.75" style="8" customWidth="1"/>
     <col min="1803" max="1805" width="8.75" style="8"/>
-    <col min="1806" max="1806" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1806" max="1806" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1807" max="1808" width="8.75" style="8"/>
-    <col min="1809" max="1809" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1809" max="1809" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1810" max="2049" width="8.75" style="8"/>
     <col min="2050" max="2050" width="5.75" style="8" customWidth="1"/>
     <col min="2051" max="2051" width="14.25" style="8" customWidth="1"/>
@@ -35595,9 +35621,9 @@
     <col min="2057" max="2057" width="12.25" style="8" customWidth="1"/>
     <col min="2058" max="2058" width="7.75" style="8" customWidth="1"/>
     <col min="2059" max="2061" width="8.75" style="8"/>
-    <col min="2062" max="2062" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2062" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2063" max="2064" width="8.75" style="8"/>
-    <col min="2065" max="2065" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2065" max="2065" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2066" max="2305" width="8.75" style="8"/>
     <col min="2306" max="2306" width="5.75" style="8" customWidth="1"/>
     <col min="2307" max="2307" width="14.25" style="8" customWidth="1"/>
@@ -35605,9 +35631,9 @@
     <col min="2313" max="2313" width="12.25" style="8" customWidth="1"/>
     <col min="2314" max="2314" width="7.75" style="8" customWidth="1"/>
     <col min="2315" max="2317" width="8.75" style="8"/>
-    <col min="2318" max="2318" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2318" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2319" max="2320" width="8.75" style="8"/>
-    <col min="2321" max="2321" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2321" max="2321" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2322" max="2561" width="8.75" style="8"/>
     <col min="2562" max="2562" width="5.75" style="8" customWidth="1"/>
     <col min="2563" max="2563" width="14.25" style="8" customWidth="1"/>
@@ -35615,9 +35641,9 @@
     <col min="2569" max="2569" width="12.25" style="8" customWidth="1"/>
     <col min="2570" max="2570" width="7.75" style="8" customWidth="1"/>
     <col min="2571" max="2573" width="8.75" style="8"/>
-    <col min="2574" max="2574" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2574" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2575" max="2576" width="8.75" style="8"/>
-    <col min="2577" max="2577" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2577" max="2577" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2578" max="2817" width="8.75" style="8"/>
     <col min="2818" max="2818" width="5.75" style="8" customWidth="1"/>
     <col min="2819" max="2819" width="14.25" style="8" customWidth="1"/>
@@ -35625,9 +35651,9 @@
     <col min="2825" max="2825" width="12.25" style="8" customWidth="1"/>
     <col min="2826" max="2826" width="7.75" style="8" customWidth="1"/>
     <col min="2827" max="2829" width="8.75" style="8"/>
-    <col min="2830" max="2830" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2830" max="2830" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2831" max="2832" width="8.75" style="8"/>
-    <col min="2833" max="2833" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2833" max="2833" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2834" max="3073" width="8.75" style="8"/>
     <col min="3074" max="3074" width="5.75" style="8" customWidth="1"/>
     <col min="3075" max="3075" width="14.25" style="8" customWidth="1"/>
@@ -35635,9 +35661,9 @@
     <col min="3081" max="3081" width="12.25" style="8" customWidth="1"/>
     <col min="3082" max="3082" width="7.75" style="8" customWidth="1"/>
     <col min="3083" max="3085" width="8.75" style="8"/>
-    <col min="3086" max="3086" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3086" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3087" max="3088" width="8.75" style="8"/>
-    <col min="3089" max="3089" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3089" max="3089" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3090" max="3329" width="8.75" style="8"/>
     <col min="3330" max="3330" width="5.75" style="8" customWidth="1"/>
     <col min="3331" max="3331" width="14.25" style="8" customWidth="1"/>
@@ -35645,9 +35671,9 @@
     <col min="3337" max="3337" width="12.25" style="8" customWidth="1"/>
     <col min="3338" max="3338" width="7.75" style="8" customWidth="1"/>
     <col min="3339" max="3341" width="8.75" style="8"/>
-    <col min="3342" max="3342" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3342" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3343" max="3344" width="8.75" style="8"/>
-    <col min="3345" max="3345" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3345" max="3345" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3346" max="3585" width="8.75" style="8"/>
     <col min="3586" max="3586" width="5.75" style="8" customWidth="1"/>
     <col min="3587" max="3587" width="14.25" style="8" customWidth="1"/>
@@ -35655,9 +35681,9 @@
     <col min="3593" max="3593" width="12.25" style="8" customWidth="1"/>
     <col min="3594" max="3594" width="7.75" style="8" customWidth="1"/>
     <col min="3595" max="3597" width="8.75" style="8"/>
-    <col min="3598" max="3598" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3598" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3599" max="3600" width="8.75" style="8"/>
-    <col min="3601" max="3601" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3601" max="3601" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3602" max="3841" width="8.75" style="8"/>
     <col min="3842" max="3842" width="5.75" style="8" customWidth="1"/>
     <col min="3843" max="3843" width="14.25" style="8" customWidth="1"/>
@@ -35665,9 +35691,9 @@
     <col min="3849" max="3849" width="12.25" style="8" customWidth="1"/>
     <col min="3850" max="3850" width="7.75" style="8" customWidth="1"/>
     <col min="3851" max="3853" width="8.75" style="8"/>
-    <col min="3854" max="3854" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3854" max="3854" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3855" max="3856" width="8.75" style="8"/>
-    <col min="3857" max="3857" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3857" max="3857" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3858" max="4097" width="8.75" style="8"/>
     <col min="4098" max="4098" width="5.75" style="8" customWidth="1"/>
     <col min="4099" max="4099" width="14.25" style="8" customWidth="1"/>
@@ -35675,9 +35701,9 @@
     <col min="4105" max="4105" width="12.25" style="8" customWidth="1"/>
     <col min="4106" max="4106" width="7.75" style="8" customWidth="1"/>
     <col min="4107" max="4109" width="8.75" style="8"/>
-    <col min="4110" max="4110" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4110" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4111" max="4112" width="8.75" style="8"/>
-    <col min="4113" max="4113" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4113" max="4113" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4114" max="4353" width="8.75" style="8"/>
     <col min="4354" max="4354" width="5.75" style="8" customWidth="1"/>
     <col min="4355" max="4355" width="14.25" style="8" customWidth="1"/>
@@ -35685,9 +35711,9 @@
     <col min="4361" max="4361" width="12.25" style="8" customWidth="1"/>
     <col min="4362" max="4362" width="7.75" style="8" customWidth="1"/>
     <col min="4363" max="4365" width="8.75" style="8"/>
-    <col min="4366" max="4366" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4366" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4367" max="4368" width="8.75" style="8"/>
-    <col min="4369" max="4369" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4369" max="4369" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4370" max="4609" width="8.75" style="8"/>
     <col min="4610" max="4610" width="5.75" style="8" customWidth="1"/>
     <col min="4611" max="4611" width="14.25" style="8" customWidth="1"/>
@@ -35695,9 +35721,9 @@
     <col min="4617" max="4617" width="12.25" style="8" customWidth="1"/>
     <col min="4618" max="4618" width="7.75" style="8" customWidth="1"/>
     <col min="4619" max="4621" width="8.75" style="8"/>
-    <col min="4622" max="4622" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4622" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4623" max="4624" width="8.75" style="8"/>
-    <col min="4625" max="4625" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4625" max="4625" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4626" max="4865" width="8.75" style="8"/>
     <col min="4866" max="4866" width="5.75" style="8" customWidth="1"/>
     <col min="4867" max="4867" width="14.25" style="8" customWidth="1"/>
@@ -35705,9 +35731,9 @@
     <col min="4873" max="4873" width="12.25" style="8" customWidth="1"/>
     <col min="4874" max="4874" width="7.75" style="8" customWidth="1"/>
     <col min="4875" max="4877" width="8.75" style="8"/>
-    <col min="4878" max="4878" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4878" max="4878" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4879" max="4880" width="8.75" style="8"/>
-    <col min="4881" max="4881" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4881" max="4881" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4882" max="5121" width="8.75" style="8"/>
     <col min="5122" max="5122" width="5.75" style="8" customWidth="1"/>
     <col min="5123" max="5123" width="14.25" style="8" customWidth="1"/>
@@ -35715,9 +35741,9 @@
     <col min="5129" max="5129" width="12.25" style="8" customWidth="1"/>
     <col min="5130" max="5130" width="7.75" style="8" customWidth="1"/>
     <col min="5131" max="5133" width="8.75" style="8"/>
-    <col min="5134" max="5134" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5134" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5135" max="5136" width="8.75" style="8"/>
-    <col min="5137" max="5137" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5137" max="5137" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5138" max="5377" width="8.75" style="8"/>
     <col min="5378" max="5378" width="5.75" style="8" customWidth="1"/>
     <col min="5379" max="5379" width="14.25" style="8" customWidth="1"/>
@@ -35725,9 +35751,9 @@
     <col min="5385" max="5385" width="12.25" style="8" customWidth="1"/>
     <col min="5386" max="5386" width="7.75" style="8" customWidth="1"/>
     <col min="5387" max="5389" width="8.75" style="8"/>
-    <col min="5390" max="5390" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5390" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5391" max="5392" width="8.75" style="8"/>
-    <col min="5393" max="5393" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5393" max="5393" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5394" max="5633" width="8.75" style="8"/>
     <col min="5634" max="5634" width="5.75" style="8" customWidth="1"/>
     <col min="5635" max="5635" width="14.25" style="8" customWidth="1"/>
@@ -35735,9 +35761,9 @@
     <col min="5641" max="5641" width="12.25" style="8" customWidth="1"/>
     <col min="5642" max="5642" width="7.75" style="8" customWidth="1"/>
     <col min="5643" max="5645" width="8.75" style="8"/>
-    <col min="5646" max="5646" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5646" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5647" max="5648" width="8.75" style="8"/>
-    <col min="5649" max="5649" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5649" max="5649" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5650" max="5889" width="8.75" style="8"/>
     <col min="5890" max="5890" width="5.75" style="8" customWidth="1"/>
     <col min="5891" max="5891" width="14.25" style="8" customWidth="1"/>
@@ -35745,9 +35771,9 @@
     <col min="5897" max="5897" width="12.25" style="8" customWidth="1"/>
     <col min="5898" max="5898" width="7.75" style="8" customWidth="1"/>
     <col min="5899" max="5901" width="8.75" style="8"/>
-    <col min="5902" max="5902" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5902" max="5902" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5903" max="5904" width="8.75" style="8"/>
-    <col min="5905" max="5905" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5905" max="5905" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5906" max="6145" width="8.75" style="8"/>
     <col min="6146" max="6146" width="5.75" style="8" customWidth="1"/>
     <col min="6147" max="6147" width="14.25" style="8" customWidth="1"/>
@@ -35755,9 +35781,9 @@
     <col min="6153" max="6153" width="12.25" style="8" customWidth="1"/>
     <col min="6154" max="6154" width="7.75" style="8" customWidth="1"/>
     <col min="6155" max="6157" width="8.75" style="8"/>
-    <col min="6158" max="6158" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6158" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6159" max="6160" width="8.75" style="8"/>
-    <col min="6161" max="6161" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6161" max="6161" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6162" max="6401" width="8.75" style="8"/>
     <col min="6402" max="6402" width="5.75" style="8" customWidth="1"/>
     <col min="6403" max="6403" width="14.25" style="8" customWidth="1"/>
@@ -35765,9 +35791,9 @@
     <col min="6409" max="6409" width="12.25" style="8" customWidth="1"/>
     <col min="6410" max="6410" width="7.75" style="8" customWidth="1"/>
     <col min="6411" max="6413" width="8.75" style="8"/>
-    <col min="6414" max="6414" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6414" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6415" max="6416" width="8.75" style="8"/>
-    <col min="6417" max="6417" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6417" max="6417" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6418" max="6657" width="8.75" style="8"/>
     <col min="6658" max="6658" width="5.75" style="8" customWidth="1"/>
     <col min="6659" max="6659" width="14.25" style="8" customWidth="1"/>
@@ -35775,9 +35801,9 @@
     <col min="6665" max="6665" width="12.25" style="8" customWidth="1"/>
     <col min="6666" max="6666" width="7.75" style="8" customWidth="1"/>
     <col min="6667" max="6669" width="8.75" style="8"/>
-    <col min="6670" max="6670" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6670" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6671" max="6672" width="8.75" style="8"/>
-    <col min="6673" max="6673" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6673" max="6673" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6674" max="6913" width="8.75" style="8"/>
     <col min="6914" max="6914" width="5.75" style="8" customWidth="1"/>
     <col min="6915" max="6915" width="14.25" style="8" customWidth="1"/>
@@ -35785,9 +35811,9 @@
     <col min="6921" max="6921" width="12.25" style="8" customWidth="1"/>
     <col min="6922" max="6922" width="7.75" style="8" customWidth="1"/>
     <col min="6923" max="6925" width="8.75" style="8"/>
-    <col min="6926" max="6926" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6926" max="6926" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6927" max="6928" width="8.75" style="8"/>
-    <col min="6929" max="6929" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6929" max="6929" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6930" max="7169" width="8.75" style="8"/>
     <col min="7170" max="7170" width="5.75" style="8" customWidth="1"/>
     <col min="7171" max="7171" width="14.25" style="8" customWidth="1"/>
@@ -35795,9 +35821,9 @@
     <col min="7177" max="7177" width="12.25" style="8" customWidth="1"/>
     <col min="7178" max="7178" width="7.75" style="8" customWidth="1"/>
     <col min="7179" max="7181" width="8.75" style="8"/>
-    <col min="7182" max="7182" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7182" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7183" max="7184" width="8.75" style="8"/>
-    <col min="7185" max="7185" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7185" max="7185" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7186" max="7425" width="8.75" style="8"/>
     <col min="7426" max="7426" width="5.75" style="8" customWidth="1"/>
     <col min="7427" max="7427" width="14.25" style="8" customWidth="1"/>
@@ -35805,9 +35831,9 @@
     <col min="7433" max="7433" width="12.25" style="8" customWidth="1"/>
     <col min="7434" max="7434" width="7.75" style="8" customWidth="1"/>
     <col min="7435" max="7437" width="8.75" style="8"/>
-    <col min="7438" max="7438" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7438" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7439" max="7440" width="8.75" style="8"/>
-    <col min="7441" max="7441" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7441" max="7441" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7442" max="7681" width="8.75" style="8"/>
     <col min="7682" max="7682" width="5.75" style="8" customWidth="1"/>
     <col min="7683" max="7683" width="14.25" style="8" customWidth="1"/>
@@ -35815,9 +35841,9 @@
     <col min="7689" max="7689" width="12.25" style="8" customWidth="1"/>
     <col min="7690" max="7690" width="7.75" style="8" customWidth="1"/>
     <col min="7691" max="7693" width="8.75" style="8"/>
-    <col min="7694" max="7694" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7694" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7695" max="7696" width="8.75" style="8"/>
-    <col min="7697" max="7697" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7697" max="7697" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7698" max="7937" width="8.75" style="8"/>
     <col min="7938" max="7938" width="5.75" style="8" customWidth="1"/>
     <col min="7939" max="7939" width="14.25" style="8" customWidth="1"/>
@@ -35825,9 +35851,9 @@
     <col min="7945" max="7945" width="12.25" style="8" customWidth="1"/>
     <col min="7946" max="7946" width="7.75" style="8" customWidth="1"/>
     <col min="7947" max="7949" width="8.75" style="8"/>
-    <col min="7950" max="7950" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7950" max="7950" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7951" max="7952" width="8.75" style="8"/>
-    <col min="7953" max="7953" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7953" max="7953" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7954" max="8193" width="8.75" style="8"/>
     <col min="8194" max="8194" width="5.75" style="8" customWidth="1"/>
     <col min="8195" max="8195" width="14.25" style="8" customWidth="1"/>
@@ -35835,9 +35861,9 @@
     <col min="8201" max="8201" width="12.25" style="8" customWidth="1"/>
     <col min="8202" max="8202" width="7.75" style="8" customWidth="1"/>
     <col min="8203" max="8205" width="8.75" style="8"/>
-    <col min="8206" max="8206" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8206" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8207" max="8208" width="8.75" style="8"/>
-    <col min="8209" max="8209" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8209" max="8209" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8210" max="8449" width="8.75" style="8"/>
     <col min="8450" max="8450" width="5.75" style="8" customWidth="1"/>
     <col min="8451" max="8451" width="14.25" style="8" customWidth="1"/>
@@ -35845,9 +35871,9 @@
     <col min="8457" max="8457" width="12.25" style="8" customWidth="1"/>
     <col min="8458" max="8458" width="7.75" style="8" customWidth="1"/>
     <col min="8459" max="8461" width="8.75" style="8"/>
-    <col min="8462" max="8462" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8462" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8463" max="8464" width="8.75" style="8"/>
-    <col min="8465" max="8465" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8465" max="8465" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8466" max="8705" width="8.75" style="8"/>
     <col min="8706" max="8706" width="5.75" style="8" customWidth="1"/>
     <col min="8707" max="8707" width="14.25" style="8" customWidth="1"/>
@@ -35855,9 +35881,9 @@
     <col min="8713" max="8713" width="12.25" style="8" customWidth="1"/>
     <col min="8714" max="8714" width="7.75" style="8" customWidth="1"/>
     <col min="8715" max="8717" width="8.75" style="8"/>
-    <col min="8718" max="8718" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8718" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8719" max="8720" width="8.75" style="8"/>
-    <col min="8721" max="8721" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8721" max="8721" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8722" max="8961" width="8.75" style="8"/>
     <col min="8962" max="8962" width="5.75" style="8" customWidth="1"/>
     <col min="8963" max="8963" width="14.25" style="8" customWidth="1"/>
@@ -35865,9 +35891,9 @@
     <col min="8969" max="8969" width="12.25" style="8" customWidth="1"/>
     <col min="8970" max="8970" width="7.75" style="8" customWidth="1"/>
     <col min="8971" max="8973" width="8.75" style="8"/>
-    <col min="8974" max="8974" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8974" max="8974" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8975" max="8976" width="8.75" style="8"/>
-    <col min="8977" max="8977" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8977" max="8977" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8978" max="9217" width="8.75" style="8"/>
     <col min="9218" max="9218" width="5.75" style="8" customWidth="1"/>
     <col min="9219" max="9219" width="14.25" style="8" customWidth="1"/>
@@ -35875,9 +35901,9 @@
     <col min="9225" max="9225" width="12.25" style="8" customWidth="1"/>
     <col min="9226" max="9226" width="7.75" style="8" customWidth="1"/>
     <col min="9227" max="9229" width="8.75" style="8"/>
-    <col min="9230" max="9230" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9230" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9231" max="9232" width="8.75" style="8"/>
-    <col min="9233" max="9233" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9233" max="9233" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9234" max="9473" width="8.75" style="8"/>
     <col min="9474" max="9474" width="5.75" style="8" customWidth="1"/>
     <col min="9475" max="9475" width="14.25" style="8" customWidth="1"/>
@@ -35885,9 +35911,9 @@
     <col min="9481" max="9481" width="12.25" style="8" customWidth="1"/>
     <col min="9482" max="9482" width="7.75" style="8" customWidth="1"/>
     <col min="9483" max="9485" width="8.75" style="8"/>
-    <col min="9486" max="9486" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9486" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9487" max="9488" width="8.75" style="8"/>
-    <col min="9489" max="9489" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9489" max="9489" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9490" max="9729" width="8.75" style="8"/>
     <col min="9730" max="9730" width="5.75" style="8" customWidth="1"/>
     <col min="9731" max="9731" width="14.25" style="8" customWidth="1"/>
@@ -35895,9 +35921,9 @@
     <col min="9737" max="9737" width="12.25" style="8" customWidth="1"/>
     <col min="9738" max="9738" width="7.75" style="8" customWidth="1"/>
     <col min="9739" max="9741" width="8.75" style="8"/>
-    <col min="9742" max="9742" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9742" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9743" max="9744" width="8.75" style="8"/>
-    <col min="9745" max="9745" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9745" max="9745" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9746" max="9985" width="8.75" style="8"/>
     <col min="9986" max="9986" width="5.75" style="8" customWidth="1"/>
     <col min="9987" max="9987" width="14.25" style="8" customWidth="1"/>
@@ -35905,9 +35931,9 @@
     <col min="9993" max="9993" width="12.25" style="8" customWidth="1"/>
     <col min="9994" max="9994" width="7.75" style="8" customWidth="1"/>
     <col min="9995" max="9997" width="8.75" style="8"/>
-    <col min="9998" max="9998" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9998" max="9998" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9999" max="10000" width="8.75" style="8"/>
-    <col min="10001" max="10001" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10001" max="10001" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10002" max="10241" width="8.75" style="8"/>
     <col min="10242" max="10242" width="5.75" style="8" customWidth="1"/>
     <col min="10243" max="10243" width="14.25" style="8" customWidth="1"/>
@@ -35915,9 +35941,9 @@
     <col min="10249" max="10249" width="12.25" style="8" customWidth="1"/>
     <col min="10250" max="10250" width="7.75" style="8" customWidth="1"/>
     <col min="10251" max="10253" width="8.75" style="8"/>
-    <col min="10254" max="10254" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10254" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10255" max="10256" width="8.75" style="8"/>
-    <col min="10257" max="10257" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10257" max="10257" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10258" max="10497" width="8.75" style="8"/>
     <col min="10498" max="10498" width="5.75" style="8" customWidth="1"/>
     <col min="10499" max="10499" width="14.25" style="8" customWidth="1"/>
@@ -35925,9 +35951,9 @@
     <col min="10505" max="10505" width="12.25" style="8" customWidth="1"/>
     <col min="10506" max="10506" width="7.75" style="8" customWidth="1"/>
     <col min="10507" max="10509" width="8.75" style="8"/>
-    <col min="10510" max="10510" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10510" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10511" max="10512" width="8.75" style="8"/>
-    <col min="10513" max="10513" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10513" max="10513" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10514" max="10753" width="8.75" style="8"/>
     <col min="10754" max="10754" width="5.75" style="8" customWidth="1"/>
     <col min="10755" max="10755" width="14.25" style="8" customWidth="1"/>
@@ -35935,9 +35961,9 @@
     <col min="10761" max="10761" width="12.25" style="8" customWidth="1"/>
     <col min="10762" max="10762" width="7.75" style="8" customWidth="1"/>
     <col min="10763" max="10765" width="8.75" style="8"/>
-    <col min="10766" max="10766" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10766" max="10766" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10767" max="10768" width="8.75" style="8"/>
-    <col min="10769" max="10769" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10769" max="10769" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10770" max="11009" width="8.75" style="8"/>
     <col min="11010" max="11010" width="5.75" style="8" customWidth="1"/>
     <col min="11011" max="11011" width="14.25" style="8" customWidth="1"/>
@@ -35945,9 +35971,9 @@
     <col min="11017" max="11017" width="12.25" style="8" customWidth="1"/>
     <col min="11018" max="11018" width="7.75" style="8" customWidth="1"/>
     <col min="11019" max="11021" width="8.75" style="8"/>
-    <col min="11022" max="11022" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11022" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11023" max="11024" width="8.75" style="8"/>
-    <col min="11025" max="11025" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11025" max="11025" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11026" max="11265" width="8.75" style="8"/>
     <col min="11266" max="11266" width="5.75" style="8" customWidth="1"/>
     <col min="11267" max="11267" width="14.25" style="8" customWidth="1"/>
@@ -35955,9 +35981,9 @@
     <col min="11273" max="11273" width="12.25" style="8" customWidth="1"/>
     <col min="11274" max="11274" width="7.75" style="8" customWidth="1"/>
     <col min="11275" max="11277" width="8.75" style="8"/>
-    <col min="11278" max="11278" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11278" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11279" max="11280" width="8.75" style="8"/>
-    <col min="11281" max="11281" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11281" max="11281" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11282" max="11521" width="8.75" style="8"/>
     <col min="11522" max="11522" width="5.75" style="8" customWidth="1"/>
     <col min="11523" max="11523" width="14.25" style="8" customWidth="1"/>
@@ -35965,9 +35991,9 @@
     <col min="11529" max="11529" width="12.25" style="8" customWidth="1"/>
     <col min="11530" max="11530" width="7.75" style="8" customWidth="1"/>
     <col min="11531" max="11533" width="8.75" style="8"/>
-    <col min="11534" max="11534" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11534" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11535" max="11536" width="8.75" style="8"/>
-    <col min="11537" max="11537" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11537" max="11537" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11538" max="11777" width="8.75" style="8"/>
     <col min="11778" max="11778" width="5.75" style="8" customWidth="1"/>
     <col min="11779" max="11779" width="14.25" style="8" customWidth="1"/>
@@ -35975,9 +36001,9 @@
     <col min="11785" max="11785" width="12.25" style="8" customWidth="1"/>
     <col min="11786" max="11786" width="7.75" style="8" customWidth="1"/>
     <col min="11787" max="11789" width="8.75" style="8"/>
-    <col min="11790" max="11790" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11790" max="11790" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11791" max="11792" width="8.75" style="8"/>
-    <col min="11793" max="11793" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11793" max="11793" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11794" max="12033" width="8.75" style="8"/>
     <col min="12034" max="12034" width="5.75" style="8" customWidth="1"/>
     <col min="12035" max="12035" width="14.25" style="8" customWidth="1"/>
@@ -35985,9 +36011,9 @@
     <col min="12041" max="12041" width="12.25" style="8" customWidth="1"/>
     <col min="12042" max="12042" width="7.75" style="8" customWidth="1"/>
     <col min="12043" max="12045" width="8.75" style="8"/>
-    <col min="12046" max="12046" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12046" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12047" max="12048" width="8.75" style="8"/>
-    <col min="12049" max="12049" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12049" max="12049" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12050" max="12289" width="8.75" style="8"/>
     <col min="12290" max="12290" width="5.75" style="8" customWidth="1"/>
     <col min="12291" max="12291" width="14.25" style="8" customWidth="1"/>
@@ -35995,9 +36021,9 @@
     <col min="12297" max="12297" width="12.25" style="8" customWidth="1"/>
     <col min="12298" max="12298" width="7.75" style="8" customWidth="1"/>
     <col min="12299" max="12301" width="8.75" style="8"/>
-    <col min="12302" max="12302" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12302" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12303" max="12304" width="8.75" style="8"/>
-    <col min="12305" max="12305" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12305" max="12305" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12306" max="12545" width="8.75" style="8"/>
     <col min="12546" max="12546" width="5.75" style="8" customWidth="1"/>
     <col min="12547" max="12547" width="14.25" style="8" customWidth="1"/>
@@ -36005,9 +36031,9 @@
     <col min="12553" max="12553" width="12.25" style="8" customWidth="1"/>
     <col min="12554" max="12554" width="7.75" style="8" customWidth="1"/>
     <col min="12555" max="12557" width="8.75" style="8"/>
-    <col min="12558" max="12558" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12558" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12559" max="12560" width="8.75" style="8"/>
-    <col min="12561" max="12561" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12561" max="12561" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12562" max="12801" width="8.75" style="8"/>
     <col min="12802" max="12802" width="5.75" style="8" customWidth="1"/>
     <col min="12803" max="12803" width="14.25" style="8" customWidth="1"/>
@@ -36015,9 +36041,9 @@
     <col min="12809" max="12809" width="12.25" style="8" customWidth="1"/>
     <col min="12810" max="12810" width="7.75" style="8" customWidth="1"/>
     <col min="12811" max="12813" width="8.75" style="8"/>
-    <col min="12814" max="12814" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12814" max="12814" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12815" max="12816" width="8.75" style="8"/>
-    <col min="12817" max="12817" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12817" max="12817" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12818" max="13057" width="8.75" style="8"/>
     <col min="13058" max="13058" width="5.75" style="8" customWidth="1"/>
     <col min="13059" max="13059" width="14.25" style="8" customWidth="1"/>
@@ -36025,9 +36051,9 @@
     <col min="13065" max="13065" width="12.25" style="8" customWidth="1"/>
     <col min="13066" max="13066" width="7.75" style="8" customWidth="1"/>
     <col min="13067" max="13069" width="8.75" style="8"/>
-    <col min="13070" max="13070" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13070" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13071" max="13072" width="8.75" style="8"/>
-    <col min="13073" max="13073" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13073" max="13073" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13074" max="13313" width="8.75" style="8"/>
     <col min="13314" max="13314" width="5.75" style="8" customWidth="1"/>
     <col min="13315" max="13315" width="14.25" style="8" customWidth="1"/>
@@ -36035,9 +36061,9 @@
     <col min="13321" max="13321" width="12.25" style="8" customWidth="1"/>
     <col min="13322" max="13322" width="7.75" style="8" customWidth="1"/>
     <col min="13323" max="13325" width="8.75" style="8"/>
-    <col min="13326" max="13326" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13326" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13327" max="13328" width="8.75" style="8"/>
-    <col min="13329" max="13329" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13329" max="13329" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13330" max="13569" width="8.75" style="8"/>
     <col min="13570" max="13570" width="5.75" style="8" customWidth="1"/>
     <col min="13571" max="13571" width="14.25" style="8" customWidth="1"/>
@@ -36045,9 +36071,9 @@
     <col min="13577" max="13577" width="12.25" style="8" customWidth="1"/>
     <col min="13578" max="13578" width="7.75" style="8" customWidth="1"/>
     <col min="13579" max="13581" width="8.75" style="8"/>
-    <col min="13582" max="13582" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13582" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13583" max="13584" width="8.75" style="8"/>
-    <col min="13585" max="13585" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13585" max="13585" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13586" max="13825" width="8.75" style="8"/>
     <col min="13826" max="13826" width="5.75" style="8" customWidth="1"/>
     <col min="13827" max="13827" width="14.25" style="8" customWidth="1"/>
@@ -36055,9 +36081,9 @@
     <col min="13833" max="13833" width="12.25" style="8" customWidth="1"/>
     <col min="13834" max="13834" width="7.75" style="8" customWidth="1"/>
     <col min="13835" max="13837" width="8.75" style="8"/>
-    <col min="13838" max="13838" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13838" max="13838" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13839" max="13840" width="8.75" style="8"/>
-    <col min="13841" max="13841" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13841" max="13841" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13842" max="14081" width="8.75" style="8"/>
     <col min="14082" max="14082" width="5.75" style="8" customWidth="1"/>
     <col min="14083" max="14083" width="14.25" style="8" customWidth="1"/>
@@ -36065,9 +36091,9 @@
     <col min="14089" max="14089" width="12.25" style="8" customWidth="1"/>
     <col min="14090" max="14090" width="7.75" style="8" customWidth="1"/>
     <col min="14091" max="14093" width="8.75" style="8"/>
-    <col min="14094" max="14094" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14094" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14095" max="14096" width="8.75" style="8"/>
-    <col min="14097" max="14097" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14097" max="14097" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14098" max="14337" width="8.75" style="8"/>
     <col min="14338" max="14338" width="5.75" style="8" customWidth="1"/>
     <col min="14339" max="14339" width="14.25" style="8" customWidth="1"/>
@@ -36075,9 +36101,9 @@
     <col min="14345" max="14345" width="12.25" style="8" customWidth="1"/>
     <col min="14346" max="14346" width="7.75" style="8" customWidth="1"/>
     <col min="14347" max="14349" width="8.75" style="8"/>
-    <col min="14350" max="14350" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14350" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14351" max="14352" width="8.75" style="8"/>
-    <col min="14353" max="14353" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14353" max="14353" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14354" max="14593" width="8.75" style="8"/>
     <col min="14594" max="14594" width="5.75" style="8" customWidth="1"/>
     <col min="14595" max="14595" width="14.25" style="8" customWidth="1"/>
@@ -36085,9 +36111,9 @@
     <col min="14601" max="14601" width="12.25" style="8" customWidth="1"/>
     <col min="14602" max="14602" width="7.75" style="8" customWidth="1"/>
     <col min="14603" max="14605" width="8.75" style="8"/>
-    <col min="14606" max="14606" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14606" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14607" max="14608" width="8.75" style="8"/>
-    <col min="14609" max="14609" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14609" max="14609" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14610" max="14849" width="8.75" style="8"/>
     <col min="14850" max="14850" width="5.75" style="8" customWidth="1"/>
     <col min="14851" max="14851" width="14.25" style="8" customWidth="1"/>
@@ -36095,9 +36121,9 @@
     <col min="14857" max="14857" width="12.25" style="8" customWidth="1"/>
     <col min="14858" max="14858" width="7.75" style="8" customWidth="1"/>
     <col min="14859" max="14861" width="8.75" style="8"/>
-    <col min="14862" max="14862" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14862" max="14862" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14863" max="14864" width="8.75" style="8"/>
-    <col min="14865" max="14865" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14865" max="14865" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14866" max="15105" width="8.75" style="8"/>
     <col min="15106" max="15106" width="5.75" style="8" customWidth="1"/>
     <col min="15107" max="15107" width="14.25" style="8" customWidth="1"/>
@@ -36105,9 +36131,9 @@
     <col min="15113" max="15113" width="12.25" style="8" customWidth="1"/>
     <col min="15114" max="15114" width="7.75" style="8" customWidth="1"/>
     <col min="15115" max="15117" width="8.75" style="8"/>
-    <col min="15118" max="15118" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15118" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15119" max="15120" width="8.75" style="8"/>
-    <col min="15121" max="15121" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15121" max="15121" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15122" max="15361" width="8.75" style="8"/>
     <col min="15362" max="15362" width="5.75" style="8" customWidth="1"/>
     <col min="15363" max="15363" width="14.25" style="8" customWidth="1"/>
@@ -36115,9 +36141,9 @@
     <col min="15369" max="15369" width="12.25" style="8" customWidth="1"/>
     <col min="15370" max="15370" width="7.75" style="8" customWidth="1"/>
     <col min="15371" max="15373" width="8.75" style="8"/>
-    <col min="15374" max="15374" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15374" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15375" max="15376" width="8.75" style="8"/>
-    <col min="15377" max="15377" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15377" max="15377" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15378" max="15617" width="8.75" style="8"/>
     <col min="15618" max="15618" width="5.75" style="8" customWidth="1"/>
     <col min="15619" max="15619" width="14.25" style="8" customWidth="1"/>
@@ -36125,9 +36151,9 @@
     <col min="15625" max="15625" width="12.25" style="8" customWidth="1"/>
     <col min="15626" max="15626" width="7.75" style="8" customWidth="1"/>
     <col min="15627" max="15629" width="8.75" style="8"/>
-    <col min="15630" max="15630" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15630" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15631" max="15632" width="8.75" style="8"/>
-    <col min="15633" max="15633" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15633" max="15633" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15634" max="15873" width="8.75" style="8"/>
     <col min="15874" max="15874" width="5.75" style="8" customWidth="1"/>
     <col min="15875" max="15875" width="14.25" style="8" customWidth="1"/>
@@ -36135,9 +36161,9 @@
     <col min="15881" max="15881" width="12.25" style="8" customWidth="1"/>
     <col min="15882" max="15882" width="7.75" style="8" customWidth="1"/>
     <col min="15883" max="15885" width="8.75" style="8"/>
-    <col min="15886" max="15886" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15886" max="15886" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15887" max="15888" width="8.75" style="8"/>
-    <col min="15889" max="15889" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15889" max="15889" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15890" max="16129" width="8.75" style="8"/>
     <col min="16130" max="16130" width="5.75" style="8" customWidth="1"/>
     <col min="16131" max="16131" width="14.25" style="8" customWidth="1"/>
@@ -36145,13 +36171,13 @@
     <col min="16137" max="16137" width="12.25" style="8" customWidth="1"/>
     <col min="16138" max="16138" width="7.75" style="8" customWidth="1"/>
     <col min="16139" max="16141" width="8.75" style="8"/>
-    <col min="16142" max="16142" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16142" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="16143" max="16144" width="8.75" style="8"/>
-    <col min="16145" max="16145" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16145" max="16145" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="16146" max="16384" width="8.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.45" customHeight="1" thickTop="1">
+    <row r="1" spans="1:19" ht="17.5" customHeight="1" thickTop="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -36163,7 +36189,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:19" ht="17.45" customHeight="1">
+    <row r="2" spans="1:19" ht="17.5" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -36179,7 +36205,7 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="3" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="17" t="str">
         <f>'[8]2.Cover '!C3&amp;" 평가대상"</f>
@@ -36201,7 +36227,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="4" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -36220,7 +36246,7 @@
       <c r="P4" s="15"/>
       <c r="Q4" s="16"/>
     </row>
-    <row r="5" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="5" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="21" t="s">
         <v>6</v>
@@ -36244,7 +36270,7 @@
       <c r="P5" s="15"/>
       <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="6" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
@@ -36269,7 +36295,7 @@
       <c r="P6" s="15"/>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="7" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="25">
         <v>1</v>
@@ -36298,7 +36324,7 @@
       <c r="R7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="8" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -36319,7 +36345,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -36340,7 +36366,7 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="10" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -36360,7 +36386,7 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -36380,7 +36406,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="12" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -36400,7 +36426,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="13" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -36420,7 +36446,7 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="14" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -36436,7 +36462,7 @@
       <c r="M14" s="8"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="15" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -36452,7 +36478,7 @@
       <c r="M15" s="8"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:19" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="16" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -36468,7 +36494,7 @@
       <c r="M16" s="8"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="17" spans="1:17" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -36484,7 +36510,7 @@
       <c r="M17" s="8"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="18" spans="1:17" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -36500,7 +36526,7 @@
       <c r="M18" s="8"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="19" spans="1:17" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -36516,7 +36542,7 @@
       <c r="M19" s="8"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="20" spans="1:17" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -36532,7 +36558,7 @@
       <c r="M20" s="8"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="21" spans="1:17" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -36548,7 +36574,7 @@
       <c r="M21" s="8"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="22" spans="1:17" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -36564,7 +36590,7 @@
       <c r="M22" s="8"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="23" spans="1:17" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -36580,7 +36606,7 @@
       <c r="M23" s="8"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="24" spans="1:17" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -36596,7 +36622,7 @@
       <c r="M24" s="8"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="25" spans="1:17" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -36612,7 +36638,7 @@
       <c r="M25" s="8"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" spans="1:17" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="26" spans="1:17" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -36628,7 +36654,7 @@
       <c r="M26" s="8"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" s="9" customFormat="1" ht="17.45" customHeight="1">
+    <row r="27" spans="1:17" s="9" customFormat="1" ht="17.5" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -36644,7 +36670,7 @@
       <c r="M27" s="8"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="17.45" customHeight="1">
+    <row r="28" spans="1:17" ht="17.5" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -36656,7 +36682,7 @@
       <c r="I28" s="369"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:17" ht="17.45" customHeight="1">
+    <row r="29" spans="1:17" ht="17.5" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -36668,7 +36694,7 @@
       <c r="I29" s="369"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:17" ht="17.45" customHeight="1">
+    <row r="30" spans="1:17" ht="17.5" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -36680,7 +36706,7 @@
       <c r="I30" s="369"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="1:17" ht="17.45" customHeight="1">
+    <row r="31" spans="1:17" ht="17.5" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -36692,7 +36718,7 @@
       <c r="I31" s="369"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="1:17" ht="17.45" customHeight="1">
+    <row r="32" spans="1:17" ht="17.5" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -36704,7 +36730,7 @@
       <c r="I32" s="369"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="1:10" ht="17.45" customHeight="1">
+    <row r="33" spans="1:10" ht="17.5" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -36716,7 +36742,7 @@
       <c r="I33" s="369"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="1:10" ht="17.45" customHeight="1">
+    <row r="34" spans="1:10" ht="17.5" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -36728,7 +36754,7 @@
       <c r="I34" s="369"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="1:10" ht="17.45" customHeight="1" thickBot="1">
+    <row r="35" spans="1:10" ht="17.5" customHeight="1" thickBot="1">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
@@ -36740,7 +36766,7 @@
       <c r="I35" s="30"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" ht="17.25" thickTop="1"/>
+    <row r="36" spans="1:10" ht="17.5" thickTop="1"/>
     <row r="76" spans="12:12">
       <c r="L76" s="34"/>
     </row>
@@ -36792,12 +36818,16 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
     <mergeCell ref="D24:I24"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D14:I14"/>
@@ -36810,16 +36840,12 @@
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.47244094488188981" top="0.74803149606299213" bottom="0.6692913385826772" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -36839,7 +36865,7 @@
       <selection activeCell="C8" sqref="C8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="5.75" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.25" style="33" customWidth="1"/>
@@ -36847,9 +36873,9 @@
     <col min="8" max="8" width="12.25" style="8" customWidth="1"/>
     <col min="9" max="9" width="7.75" style="8" customWidth="1"/>
     <col min="10" max="12" width="8.75" style="8"/>
-    <col min="13" max="13" width="11.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.08203125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="8.75" style="9"/>
-    <col min="16" max="16" width="14.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.58203125" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="8.75" style="9"/>
     <col min="22" max="256" width="8.75" style="8"/>
     <col min="257" max="257" width="5.75" style="8" customWidth="1"/>
@@ -36858,9 +36884,9 @@
     <col min="264" max="264" width="12.25" style="8" customWidth="1"/>
     <col min="265" max="265" width="7.75" style="8" customWidth="1"/>
     <col min="266" max="268" width="8.75" style="8"/>
-    <col min="269" max="269" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="270" max="271" width="8.75" style="8"/>
-    <col min="272" max="272" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="273" max="512" width="8.75" style="8"/>
     <col min="513" max="513" width="5.75" style="8" customWidth="1"/>
     <col min="514" max="514" width="14.25" style="8" customWidth="1"/>
@@ -36868,9 +36894,9 @@
     <col min="520" max="520" width="12.25" style="8" customWidth="1"/>
     <col min="521" max="521" width="7.75" style="8" customWidth="1"/>
     <col min="522" max="524" width="8.75" style="8"/>
-    <col min="525" max="525" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="526" max="527" width="8.75" style="8"/>
-    <col min="528" max="528" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="529" max="768" width="8.75" style="8"/>
     <col min="769" max="769" width="5.75" style="8" customWidth="1"/>
     <col min="770" max="770" width="14.25" style="8" customWidth="1"/>
@@ -36878,9 +36904,9 @@
     <col min="776" max="776" width="12.25" style="8" customWidth="1"/>
     <col min="777" max="777" width="7.75" style="8" customWidth="1"/>
     <col min="778" max="780" width="8.75" style="8"/>
-    <col min="781" max="781" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="782" max="783" width="8.75" style="8"/>
-    <col min="784" max="784" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="784" max="784" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="785" max="1024" width="8.75" style="8"/>
     <col min="1025" max="1025" width="5.75" style="8" customWidth="1"/>
     <col min="1026" max="1026" width="14.25" style="8" customWidth="1"/>
@@ -36888,9 +36914,9 @@
     <col min="1032" max="1032" width="12.25" style="8" customWidth="1"/>
     <col min="1033" max="1033" width="7.75" style="8" customWidth="1"/>
     <col min="1034" max="1036" width="8.75" style="8"/>
-    <col min="1037" max="1037" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1037" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1038" max="1039" width="8.75" style="8"/>
-    <col min="1040" max="1040" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1040" max="1040" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1041" max="1280" width="8.75" style="8"/>
     <col min="1281" max="1281" width="5.75" style="8" customWidth="1"/>
     <col min="1282" max="1282" width="14.25" style="8" customWidth="1"/>
@@ -36898,9 +36924,9 @@
     <col min="1288" max="1288" width="12.25" style="8" customWidth="1"/>
     <col min="1289" max="1289" width="7.75" style="8" customWidth="1"/>
     <col min="1290" max="1292" width="8.75" style="8"/>
-    <col min="1293" max="1293" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1293" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1294" max="1295" width="8.75" style="8"/>
-    <col min="1296" max="1296" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1296" max="1296" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1297" max="1536" width="8.75" style="8"/>
     <col min="1537" max="1537" width="5.75" style="8" customWidth="1"/>
     <col min="1538" max="1538" width="14.25" style="8" customWidth="1"/>
@@ -36908,9 +36934,9 @@
     <col min="1544" max="1544" width="12.25" style="8" customWidth="1"/>
     <col min="1545" max="1545" width="7.75" style="8" customWidth="1"/>
     <col min="1546" max="1548" width="8.75" style="8"/>
-    <col min="1549" max="1549" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1549" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1550" max="1551" width="8.75" style="8"/>
-    <col min="1552" max="1552" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1552" max="1552" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1553" max="1792" width="8.75" style="8"/>
     <col min="1793" max="1793" width="5.75" style="8" customWidth="1"/>
     <col min="1794" max="1794" width="14.25" style="8" customWidth="1"/>
@@ -36918,9 +36944,9 @@
     <col min="1800" max="1800" width="12.25" style="8" customWidth="1"/>
     <col min="1801" max="1801" width="7.75" style="8" customWidth="1"/>
     <col min="1802" max="1804" width="8.75" style="8"/>
-    <col min="1805" max="1805" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1805" max="1805" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1806" max="1807" width="8.75" style="8"/>
-    <col min="1808" max="1808" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1808" max="1808" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="1809" max="2048" width="8.75" style="8"/>
     <col min="2049" max="2049" width="5.75" style="8" customWidth="1"/>
     <col min="2050" max="2050" width="14.25" style="8" customWidth="1"/>
@@ -36928,9 +36954,9 @@
     <col min="2056" max="2056" width="12.25" style="8" customWidth="1"/>
     <col min="2057" max="2057" width="7.75" style="8" customWidth="1"/>
     <col min="2058" max="2060" width="8.75" style="8"/>
-    <col min="2061" max="2061" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2061" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2062" max="2063" width="8.75" style="8"/>
-    <col min="2064" max="2064" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2064" max="2064" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2065" max="2304" width="8.75" style="8"/>
     <col min="2305" max="2305" width="5.75" style="8" customWidth="1"/>
     <col min="2306" max="2306" width="14.25" style="8" customWidth="1"/>
@@ -36938,9 +36964,9 @@
     <col min="2312" max="2312" width="12.25" style="8" customWidth="1"/>
     <col min="2313" max="2313" width="7.75" style="8" customWidth="1"/>
     <col min="2314" max="2316" width="8.75" style="8"/>
-    <col min="2317" max="2317" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2317" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2318" max="2319" width="8.75" style="8"/>
-    <col min="2320" max="2320" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2320" max="2320" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2321" max="2560" width="8.75" style="8"/>
     <col min="2561" max="2561" width="5.75" style="8" customWidth="1"/>
     <col min="2562" max="2562" width="14.25" style="8" customWidth="1"/>
@@ -36948,9 +36974,9 @@
     <col min="2568" max="2568" width="12.25" style="8" customWidth="1"/>
     <col min="2569" max="2569" width="7.75" style="8" customWidth="1"/>
     <col min="2570" max="2572" width="8.75" style="8"/>
-    <col min="2573" max="2573" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2573" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2574" max="2575" width="8.75" style="8"/>
-    <col min="2576" max="2576" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2576" max="2576" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2577" max="2816" width="8.75" style="8"/>
     <col min="2817" max="2817" width="5.75" style="8" customWidth="1"/>
     <col min="2818" max="2818" width="14.25" style="8" customWidth="1"/>
@@ -36958,9 +36984,9 @@
     <col min="2824" max="2824" width="12.25" style="8" customWidth="1"/>
     <col min="2825" max="2825" width="7.75" style="8" customWidth="1"/>
     <col min="2826" max="2828" width="8.75" style="8"/>
-    <col min="2829" max="2829" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2829" max="2829" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2830" max="2831" width="8.75" style="8"/>
-    <col min="2832" max="2832" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2832" max="2832" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2833" max="3072" width="8.75" style="8"/>
     <col min="3073" max="3073" width="5.75" style="8" customWidth="1"/>
     <col min="3074" max="3074" width="14.25" style="8" customWidth="1"/>
@@ -36968,9 +36994,9 @@
     <col min="3080" max="3080" width="12.25" style="8" customWidth="1"/>
     <col min="3081" max="3081" width="7.75" style="8" customWidth="1"/>
     <col min="3082" max="3084" width="8.75" style="8"/>
-    <col min="3085" max="3085" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3085" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3086" max="3087" width="8.75" style="8"/>
-    <col min="3088" max="3088" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3088" max="3088" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3089" max="3328" width="8.75" style="8"/>
     <col min="3329" max="3329" width="5.75" style="8" customWidth="1"/>
     <col min="3330" max="3330" width="14.25" style="8" customWidth="1"/>
@@ -36978,9 +37004,9 @@
     <col min="3336" max="3336" width="12.25" style="8" customWidth="1"/>
     <col min="3337" max="3337" width="7.75" style="8" customWidth="1"/>
     <col min="3338" max="3340" width="8.75" style="8"/>
-    <col min="3341" max="3341" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3341" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3342" max="3343" width="8.75" style="8"/>
-    <col min="3344" max="3344" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3344" max="3344" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3345" max="3584" width="8.75" style="8"/>
     <col min="3585" max="3585" width="5.75" style="8" customWidth="1"/>
     <col min="3586" max="3586" width="14.25" style="8" customWidth="1"/>
@@ -36988,9 +37014,9 @@
     <col min="3592" max="3592" width="12.25" style="8" customWidth="1"/>
     <col min="3593" max="3593" width="7.75" style="8" customWidth="1"/>
     <col min="3594" max="3596" width="8.75" style="8"/>
-    <col min="3597" max="3597" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3597" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3598" max="3599" width="8.75" style="8"/>
-    <col min="3600" max="3600" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3600" max="3600" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3601" max="3840" width="8.75" style="8"/>
     <col min="3841" max="3841" width="5.75" style="8" customWidth="1"/>
     <col min="3842" max="3842" width="14.25" style="8" customWidth="1"/>
@@ -36998,9 +37024,9 @@
     <col min="3848" max="3848" width="12.25" style="8" customWidth="1"/>
     <col min="3849" max="3849" width="7.75" style="8" customWidth="1"/>
     <col min="3850" max="3852" width="8.75" style="8"/>
-    <col min="3853" max="3853" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3853" max="3853" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3854" max="3855" width="8.75" style="8"/>
-    <col min="3856" max="3856" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3856" max="3856" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3857" max="4096" width="8.75" style="8"/>
     <col min="4097" max="4097" width="5.75" style="8" customWidth="1"/>
     <col min="4098" max="4098" width="14.25" style="8" customWidth="1"/>
@@ -37008,9 +37034,9 @@
     <col min="4104" max="4104" width="12.25" style="8" customWidth="1"/>
     <col min="4105" max="4105" width="7.75" style="8" customWidth="1"/>
     <col min="4106" max="4108" width="8.75" style="8"/>
-    <col min="4109" max="4109" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4109" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4110" max="4111" width="8.75" style="8"/>
-    <col min="4112" max="4112" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4112" max="4112" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4113" max="4352" width="8.75" style="8"/>
     <col min="4353" max="4353" width="5.75" style="8" customWidth="1"/>
     <col min="4354" max="4354" width="14.25" style="8" customWidth="1"/>
@@ -37018,9 +37044,9 @@
     <col min="4360" max="4360" width="12.25" style="8" customWidth="1"/>
     <col min="4361" max="4361" width="7.75" style="8" customWidth="1"/>
     <col min="4362" max="4364" width="8.75" style="8"/>
-    <col min="4365" max="4365" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4365" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4366" max="4367" width="8.75" style="8"/>
-    <col min="4368" max="4368" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4368" max="4368" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4369" max="4608" width="8.75" style="8"/>
     <col min="4609" max="4609" width="5.75" style="8" customWidth="1"/>
     <col min="4610" max="4610" width="14.25" style="8" customWidth="1"/>
@@ -37028,9 +37054,9 @@
     <col min="4616" max="4616" width="12.25" style="8" customWidth="1"/>
     <col min="4617" max="4617" width="7.75" style="8" customWidth="1"/>
     <col min="4618" max="4620" width="8.75" style="8"/>
-    <col min="4621" max="4621" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4621" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4622" max="4623" width="8.75" style="8"/>
-    <col min="4624" max="4624" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4624" max="4624" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4625" max="4864" width="8.75" style="8"/>
     <col min="4865" max="4865" width="5.75" style="8" customWidth="1"/>
     <col min="4866" max="4866" width="14.25" style="8" customWidth="1"/>
@@ -37038,9 +37064,9 @@
     <col min="4872" max="4872" width="12.25" style="8" customWidth="1"/>
     <col min="4873" max="4873" width="7.75" style="8" customWidth="1"/>
     <col min="4874" max="4876" width="8.75" style="8"/>
-    <col min="4877" max="4877" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4877" max="4877" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4878" max="4879" width="8.75" style="8"/>
-    <col min="4880" max="4880" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4880" max="4880" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4881" max="5120" width="8.75" style="8"/>
     <col min="5121" max="5121" width="5.75" style="8" customWidth="1"/>
     <col min="5122" max="5122" width="14.25" style="8" customWidth="1"/>
@@ -37048,9 +37074,9 @@
     <col min="5128" max="5128" width="12.25" style="8" customWidth="1"/>
     <col min="5129" max="5129" width="7.75" style="8" customWidth="1"/>
     <col min="5130" max="5132" width="8.75" style="8"/>
-    <col min="5133" max="5133" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5133" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5134" max="5135" width="8.75" style="8"/>
-    <col min="5136" max="5136" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5136" max="5136" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5137" max="5376" width="8.75" style="8"/>
     <col min="5377" max="5377" width="5.75" style="8" customWidth="1"/>
     <col min="5378" max="5378" width="14.25" style="8" customWidth="1"/>
@@ -37058,9 +37084,9 @@
     <col min="5384" max="5384" width="12.25" style="8" customWidth="1"/>
     <col min="5385" max="5385" width="7.75" style="8" customWidth="1"/>
     <col min="5386" max="5388" width="8.75" style="8"/>
-    <col min="5389" max="5389" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5389" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5390" max="5391" width="8.75" style="8"/>
-    <col min="5392" max="5392" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5392" max="5392" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5393" max="5632" width="8.75" style="8"/>
     <col min="5633" max="5633" width="5.75" style="8" customWidth="1"/>
     <col min="5634" max="5634" width="14.25" style="8" customWidth="1"/>
@@ -37068,9 +37094,9 @@
     <col min="5640" max="5640" width="12.25" style="8" customWidth="1"/>
     <col min="5641" max="5641" width="7.75" style="8" customWidth="1"/>
     <col min="5642" max="5644" width="8.75" style="8"/>
-    <col min="5645" max="5645" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5645" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5646" max="5647" width="8.75" style="8"/>
-    <col min="5648" max="5648" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5648" max="5648" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5649" max="5888" width="8.75" style="8"/>
     <col min="5889" max="5889" width="5.75" style="8" customWidth="1"/>
     <col min="5890" max="5890" width="14.25" style="8" customWidth="1"/>
@@ -37078,9 +37104,9 @@
     <col min="5896" max="5896" width="12.25" style="8" customWidth="1"/>
     <col min="5897" max="5897" width="7.75" style="8" customWidth="1"/>
     <col min="5898" max="5900" width="8.75" style="8"/>
-    <col min="5901" max="5901" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5901" max="5901" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5902" max="5903" width="8.75" style="8"/>
-    <col min="5904" max="5904" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5904" max="5904" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5905" max="6144" width="8.75" style="8"/>
     <col min="6145" max="6145" width="5.75" style="8" customWidth="1"/>
     <col min="6146" max="6146" width="14.25" style="8" customWidth="1"/>
@@ -37088,9 +37114,9 @@
     <col min="6152" max="6152" width="12.25" style="8" customWidth="1"/>
     <col min="6153" max="6153" width="7.75" style="8" customWidth="1"/>
     <col min="6154" max="6156" width="8.75" style="8"/>
-    <col min="6157" max="6157" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6157" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6158" max="6159" width="8.75" style="8"/>
-    <col min="6160" max="6160" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6160" max="6160" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6161" max="6400" width="8.75" style="8"/>
     <col min="6401" max="6401" width="5.75" style="8" customWidth="1"/>
     <col min="6402" max="6402" width="14.25" style="8" customWidth="1"/>
@@ -37098,9 +37124,9 @@
     <col min="6408" max="6408" width="12.25" style="8" customWidth="1"/>
     <col min="6409" max="6409" width="7.75" style="8" customWidth="1"/>
     <col min="6410" max="6412" width="8.75" style="8"/>
-    <col min="6413" max="6413" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6413" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6414" max="6415" width="8.75" style="8"/>
-    <col min="6416" max="6416" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6416" max="6416" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6417" max="6656" width="8.75" style="8"/>
     <col min="6657" max="6657" width="5.75" style="8" customWidth="1"/>
     <col min="6658" max="6658" width="14.25" style="8" customWidth="1"/>
@@ -37108,9 +37134,9 @@
     <col min="6664" max="6664" width="12.25" style="8" customWidth="1"/>
     <col min="6665" max="6665" width="7.75" style="8" customWidth="1"/>
     <col min="6666" max="6668" width="8.75" style="8"/>
-    <col min="6669" max="6669" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6669" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6670" max="6671" width="8.75" style="8"/>
-    <col min="6672" max="6672" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6672" max="6672" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6673" max="6912" width="8.75" style="8"/>
     <col min="6913" max="6913" width="5.75" style="8" customWidth="1"/>
     <col min="6914" max="6914" width="14.25" style="8" customWidth="1"/>
@@ -37118,9 +37144,9 @@
     <col min="6920" max="6920" width="12.25" style="8" customWidth="1"/>
     <col min="6921" max="6921" width="7.75" style="8" customWidth="1"/>
     <col min="6922" max="6924" width="8.75" style="8"/>
-    <col min="6925" max="6925" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6925" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6926" max="6927" width="8.75" style="8"/>
-    <col min="6928" max="6928" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6928" max="6928" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6929" max="7168" width="8.75" style="8"/>
     <col min="7169" max="7169" width="5.75" style="8" customWidth="1"/>
     <col min="7170" max="7170" width="14.25" style="8" customWidth="1"/>
@@ -37128,9 +37154,9 @@
     <col min="7176" max="7176" width="12.25" style="8" customWidth="1"/>
     <col min="7177" max="7177" width="7.75" style="8" customWidth="1"/>
     <col min="7178" max="7180" width="8.75" style="8"/>
-    <col min="7181" max="7181" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7181" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7182" max="7183" width="8.75" style="8"/>
-    <col min="7184" max="7184" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7184" max="7184" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7185" max="7424" width="8.75" style="8"/>
     <col min="7425" max="7425" width="5.75" style="8" customWidth="1"/>
     <col min="7426" max="7426" width="14.25" style="8" customWidth="1"/>
@@ -37138,9 +37164,9 @@
     <col min="7432" max="7432" width="12.25" style="8" customWidth="1"/>
     <col min="7433" max="7433" width="7.75" style="8" customWidth="1"/>
     <col min="7434" max="7436" width="8.75" style="8"/>
-    <col min="7437" max="7437" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7437" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7438" max="7439" width="8.75" style="8"/>
-    <col min="7440" max="7440" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7440" max="7440" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7441" max="7680" width="8.75" style="8"/>
     <col min="7681" max="7681" width="5.75" style="8" customWidth="1"/>
     <col min="7682" max="7682" width="14.25" style="8" customWidth="1"/>
@@ -37148,9 +37174,9 @@
     <col min="7688" max="7688" width="12.25" style="8" customWidth="1"/>
     <col min="7689" max="7689" width="7.75" style="8" customWidth="1"/>
     <col min="7690" max="7692" width="8.75" style="8"/>
-    <col min="7693" max="7693" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7693" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7694" max="7695" width="8.75" style="8"/>
-    <col min="7696" max="7696" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7696" max="7696" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7697" max="7936" width="8.75" style="8"/>
     <col min="7937" max="7937" width="5.75" style="8" customWidth="1"/>
     <col min="7938" max="7938" width="14.25" style="8" customWidth="1"/>
@@ -37158,9 +37184,9 @@
     <col min="7944" max="7944" width="12.25" style="8" customWidth="1"/>
     <col min="7945" max="7945" width="7.75" style="8" customWidth="1"/>
     <col min="7946" max="7948" width="8.75" style="8"/>
-    <col min="7949" max="7949" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7949" max="7949" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7950" max="7951" width="8.75" style="8"/>
-    <col min="7952" max="7952" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7952" max="7952" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7953" max="8192" width="8.75" style="8"/>
     <col min="8193" max="8193" width="5.75" style="8" customWidth="1"/>
     <col min="8194" max="8194" width="14.25" style="8" customWidth="1"/>
@@ -37168,9 +37194,9 @@
     <col min="8200" max="8200" width="12.25" style="8" customWidth="1"/>
     <col min="8201" max="8201" width="7.75" style="8" customWidth="1"/>
     <col min="8202" max="8204" width="8.75" style="8"/>
-    <col min="8205" max="8205" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8205" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8206" max="8207" width="8.75" style="8"/>
-    <col min="8208" max="8208" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8208" max="8208" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8209" max="8448" width="8.75" style="8"/>
     <col min="8449" max="8449" width="5.75" style="8" customWidth="1"/>
     <col min="8450" max="8450" width="14.25" style="8" customWidth="1"/>
@@ -37178,9 +37204,9 @@
     <col min="8456" max="8456" width="12.25" style="8" customWidth="1"/>
     <col min="8457" max="8457" width="7.75" style="8" customWidth="1"/>
     <col min="8458" max="8460" width="8.75" style="8"/>
-    <col min="8461" max="8461" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8461" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8462" max="8463" width="8.75" style="8"/>
-    <col min="8464" max="8464" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8464" max="8464" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8465" max="8704" width="8.75" style="8"/>
     <col min="8705" max="8705" width="5.75" style="8" customWidth="1"/>
     <col min="8706" max="8706" width="14.25" style="8" customWidth="1"/>
@@ -37188,9 +37214,9 @@
     <col min="8712" max="8712" width="12.25" style="8" customWidth="1"/>
     <col min="8713" max="8713" width="7.75" style="8" customWidth="1"/>
     <col min="8714" max="8716" width="8.75" style="8"/>
-    <col min="8717" max="8717" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8717" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8718" max="8719" width="8.75" style="8"/>
-    <col min="8720" max="8720" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8720" max="8720" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8721" max="8960" width="8.75" style="8"/>
     <col min="8961" max="8961" width="5.75" style="8" customWidth="1"/>
     <col min="8962" max="8962" width="14.25" style="8" customWidth="1"/>
@@ -37198,9 +37224,9 @@
     <col min="8968" max="8968" width="12.25" style="8" customWidth="1"/>
     <col min="8969" max="8969" width="7.75" style="8" customWidth="1"/>
     <col min="8970" max="8972" width="8.75" style="8"/>
-    <col min="8973" max="8973" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8973" max="8973" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8974" max="8975" width="8.75" style="8"/>
-    <col min="8976" max="8976" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8976" max="8976" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8977" max="9216" width="8.75" style="8"/>
     <col min="9217" max="9217" width="5.75" style="8" customWidth="1"/>
     <col min="9218" max="9218" width="14.25" style="8" customWidth="1"/>
@@ -37208,9 +37234,9 @@
     <col min="9224" max="9224" width="12.25" style="8" customWidth="1"/>
     <col min="9225" max="9225" width="7.75" style="8" customWidth="1"/>
     <col min="9226" max="9228" width="8.75" style="8"/>
-    <col min="9229" max="9229" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9229" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9230" max="9231" width="8.75" style="8"/>
-    <col min="9232" max="9232" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9232" max="9232" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9233" max="9472" width="8.75" style="8"/>
     <col min="9473" max="9473" width="5.75" style="8" customWidth="1"/>
     <col min="9474" max="9474" width="14.25" style="8" customWidth="1"/>
@@ -37218,9 +37244,9 @@
     <col min="9480" max="9480" width="12.25" style="8" customWidth="1"/>
     <col min="9481" max="9481" width="7.75" style="8" customWidth="1"/>
     <col min="9482" max="9484" width="8.75" style="8"/>
-    <col min="9485" max="9485" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9485" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9486" max="9487" width="8.75" style="8"/>
-    <col min="9488" max="9488" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9488" max="9488" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9489" max="9728" width="8.75" style="8"/>
     <col min="9729" max="9729" width="5.75" style="8" customWidth="1"/>
     <col min="9730" max="9730" width="14.25" style="8" customWidth="1"/>
@@ -37228,9 +37254,9 @@
     <col min="9736" max="9736" width="12.25" style="8" customWidth="1"/>
     <col min="9737" max="9737" width="7.75" style="8" customWidth="1"/>
     <col min="9738" max="9740" width="8.75" style="8"/>
-    <col min="9741" max="9741" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9741" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9742" max="9743" width="8.75" style="8"/>
-    <col min="9744" max="9744" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9744" max="9744" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9745" max="9984" width="8.75" style="8"/>
     <col min="9985" max="9985" width="5.75" style="8" customWidth="1"/>
     <col min="9986" max="9986" width="14.25" style="8" customWidth="1"/>
@@ -37238,9 +37264,9 @@
     <col min="9992" max="9992" width="12.25" style="8" customWidth="1"/>
     <col min="9993" max="9993" width="7.75" style="8" customWidth="1"/>
     <col min="9994" max="9996" width="8.75" style="8"/>
-    <col min="9997" max="9997" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9997" max="9997" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9998" max="9999" width="8.75" style="8"/>
-    <col min="10000" max="10000" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10000" max="10000" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10001" max="10240" width="8.75" style="8"/>
     <col min="10241" max="10241" width="5.75" style="8" customWidth="1"/>
     <col min="10242" max="10242" width="14.25" style="8" customWidth="1"/>
@@ -37248,9 +37274,9 @@
     <col min="10248" max="10248" width="12.25" style="8" customWidth="1"/>
     <col min="10249" max="10249" width="7.75" style="8" customWidth="1"/>
     <col min="10250" max="10252" width="8.75" style="8"/>
-    <col min="10253" max="10253" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10253" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10254" max="10255" width="8.75" style="8"/>
-    <col min="10256" max="10256" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10256" max="10256" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10257" max="10496" width="8.75" style="8"/>
     <col min="10497" max="10497" width="5.75" style="8" customWidth="1"/>
     <col min="10498" max="10498" width="14.25" style="8" customWidth="1"/>
@@ -37258,9 +37284,9 @@
     <col min="10504" max="10504" width="12.25" style="8" customWidth="1"/>
     <col min="10505" max="10505" width="7.75" style="8" customWidth="1"/>
     <col min="10506" max="10508" width="8.75" style="8"/>
-    <col min="10509" max="10509" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10509" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10510" max="10511" width="8.75" style="8"/>
-    <col min="10512" max="10512" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10512" max="10512" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10513" max="10752" width="8.75" style="8"/>
     <col min="10753" max="10753" width="5.75" style="8" customWidth="1"/>
     <col min="10754" max="10754" width="14.25" style="8" customWidth="1"/>
@@ -37268,9 +37294,9 @@
     <col min="10760" max="10760" width="12.25" style="8" customWidth="1"/>
     <col min="10761" max="10761" width="7.75" style="8" customWidth="1"/>
     <col min="10762" max="10764" width="8.75" style="8"/>
-    <col min="10765" max="10765" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10765" max="10765" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10766" max="10767" width="8.75" style="8"/>
-    <col min="10768" max="10768" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10768" max="10768" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10769" max="11008" width="8.75" style="8"/>
     <col min="11009" max="11009" width="5.75" style="8" customWidth="1"/>
     <col min="11010" max="11010" width="14.25" style="8" customWidth="1"/>
@@ -37278,9 +37304,9 @@
     <col min="11016" max="11016" width="12.25" style="8" customWidth="1"/>
     <col min="11017" max="11017" width="7.75" style="8" customWidth="1"/>
     <col min="11018" max="11020" width="8.75" style="8"/>
-    <col min="11021" max="11021" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11021" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11022" max="11023" width="8.75" style="8"/>
-    <col min="11024" max="11024" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11024" max="11024" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11025" max="11264" width="8.75" style="8"/>
     <col min="11265" max="11265" width="5.75" style="8" customWidth="1"/>
     <col min="11266" max="11266" width="14.25" style="8" customWidth="1"/>
@@ -37288,9 +37314,9 @@
     <col min="11272" max="11272" width="12.25" style="8" customWidth="1"/>
     <col min="11273" max="11273" width="7.75" style="8" customWidth="1"/>
     <col min="11274" max="11276" width="8.75" style="8"/>
-    <col min="11277" max="11277" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11277" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11278" max="11279" width="8.75" style="8"/>
-    <col min="11280" max="11280" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11280" max="11280" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11281" max="11520" width="8.75" style="8"/>
     <col min="11521" max="11521" width="5.75" style="8" customWidth="1"/>
     <col min="11522" max="11522" width="14.25" style="8" customWidth="1"/>
@@ -37298,9 +37324,9 @@
     <col min="11528" max="11528" width="12.25" style="8" customWidth="1"/>
     <col min="11529" max="11529" width="7.75" style="8" customWidth="1"/>
     <col min="11530" max="11532" width="8.75" style="8"/>
-    <col min="11533" max="11533" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11533" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11534" max="11535" width="8.75" style="8"/>
-    <col min="11536" max="11536" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11536" max="11536" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11537" max="11776" width="8.75" style="8"/>
     <col min="11777" max="11777" width="5.75" style="8" customWidth="1"/>
     <col min="11778" max="11778" width="14.25" style="8" customWidth="1"/>
@@ -37308,9 +37334,9 @@
     <col min="11784" max="11784" width="12.25" style="8" customWidth="1"/>
     <col min="11785" max="11785" width="7.75" style="8" customWidth="1"/>
     <col min="11786" max="11788" width="8.75" style="8"/>
-    <col min="11789" max="11789" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11789" max="11789" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11790" max="11791" width="8.75" style="8"/>
-    <col min="11792" max="11792" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11792" max="11792" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11793" max="12032" width="8.75" style="8"/>
     <col min="12033" max="12033" width="5.75" style="8" customWidth="1"/>
     <col min="12034" max="12034" width="14.25" style="8" customWidth="1"/>
@@ -37318,9 +37344,9 @@
     <col min="12040" max="12040" width="12.25" style="8" customWidth="1"/>
     <col min="12041" max="12041" width="7.75" style="8" customWidth="1"/>
     <col min="12042" max="12044" width="8.75" style="8"/>
-    <col min="12045" max="12045" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12045" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12046" max="12047" width="8.75" style="8"/>
-    <col min="12048" max="12048" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12048" max="12048" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12049" max="12288" width="8.75" style="8"/>
     <col min="12289" max="12289" width="5.75" style="8" customWidth="1"/>
     <col min="12290" max="12290" width="14.25" style="8" customWidth="1"/>
@@ -37328,9 +37354,9 @@
     <col min="12296" max="12296" width="12.25" style="8" customWidth="1"/>
     <col min="12297" max="12297" width="7.75" style="8" customWidth="1"/>
     <col min="12298" max="12300" width="8.75" style="8"/>
-    <col min="12301" max="12301" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12301" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12302" max="12303" width="8.75" style="8"/>
-    <col min="12304" max="12304" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12304" max="12304" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12305" max="12544" width="8.75" style="8"/>
     <col min="12545" max="12545" width="5.75" style="8" customWidth="1"/>
     <col min="12546" max="12546" width="14.25" style="8" customWidth="1"/>
@@ -37338,9 +37364,9 @@
     <col min="12552" max="12552" width="12.25" style="8" customWidth="1"/>
     <col min="12553" max="12553" width="7.75" style="8" customWidth="1"/>
     <col min="12554" max="12556" width="8.75" style="8"/>
-    <col min="12557" max="12557" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12557" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12558" max="12559" width="8.75" style="8"/>
-    <col min="12560" max="12560" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12560" max="12560" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12561" max="12800" width="8.75" style="8"/>
     <col min="12801" max="12801" width="5.75" style="8" customWidth="1"/>
     <col min="12802" max="12802" width="14.25" style="8" customWidth="1"/>
@@ -37348,9 +37374,9 @@
     <col min="12808" max="12808" width="12.25" style="8" customWidth="1"/>
     <col min="12809" max="12809" width="7.75" style="8" customWidth="1"/>
     <col min="12810" max="12812" width="8.75" style="8"/>
-    <col min="12813" max="12813" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12813" max="12813" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12814" max="12815" width="8.75" style="8"/>
-    <col min="12816" max="12816" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12816" max="12816" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12817" max="13056" width="8.75" style="8"/>
     <col min="13057" max="13057" width="5.75" style="8" customWidth="1"/>
     <col min="13058" max="13058" width="14.25" style="8" customWidth="1"/>
@@ -37358,9 +37384,9 @@
     <col min="13064" max="13064" width="12.25" style="8" customWidth="1"/>
     <col min="13065" max="13065" width="7.75" style="8" customWidth="1"/>
     <col min="13066" max="13068" width="8.75" style="8"/>
-    <col min="13069" max="13069" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13069" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13070" max="13071" width="8.75" style="8"/>
-    <col min="13072" max="13072" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13072" max="13072" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13073" max="13312" width="8.75" style="8"/>
     <col min="13313" max="13313" width="5.75" style="8" customWidth="1"/>
     <col min="13314" max="13314" width="14.25" style="8" customWidth="1"/>
@@ -37368,9 +37394,9 @@
     <col min="13320" max="13320" width="12.25" style="8" customWidth="1"/>
     <col min="13321" max="13321" width="7.75" style="8" customWidth="1"/>
     <col min="13322" max="13324" width="8.75" style="8"/>
-    <col min="13325" max="13325" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13325" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13326" max="13327" width="8.75" style="8"/>
-    <col min="13328" max="13328" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13328" max="13328" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13329" max="13568" width="8.75" style="8"/>
     <col min="13569" max="13569" width="5.75" style="8" customWidth="1"/>
     <col min="13570" max="13570" width="14.25" style="8" customWidth="1"/>
@@ -37378,9 +37404,9 @@
     <col min="13576" max="13576" width="12.25" style="8" customWidth="1"/>
     <col min="13577" max="13577" width="7.75" style="8" customWidth="1"/>
     <col min="13578" max="13580" width="8.75" style="8"/>
-    <col min="13581" max="13581" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13581" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13582" max="13583" width="8.75" style="8"/>
-    <col min="13584" max="13584" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13584" max="13584" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13585" max="13824" width="8.75" style="8"/>
     <col min="13825" max="13825" width="5.75" style="8" customWidth="1"/>
     <col min="13826" max="13826" width="14.25" style="8" customWidth="1"/>
@@ -37388,9 +37414,9 @@
     <col min="13832" max="13832" width="12.25" style="8" customWidth="1"/>
     <col min="13833" max="13833" width="7.75" style="8" customWidth="1"/>
     <col min="13834" max="13836" width="8.75" style="8"/>
-    <col min="13837" max="13837" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13837" max="13837" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13838" max="13839" width="8.75" style="8"/>
-    <col min="13840" max="13840" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13840" max="13840" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="13841" max="14080" width="8.75" style="8"/>
     <col min="14081" max="14081" width="5.75" style="8" customWidth="1"/>
     <col min="14082" max="14082" width="14.25" style="8" customWidth="1"/>
@@ -37398,9 +37424,9 @@
     <col min="14088" max="14088" width="12.25" style="8" customWidth="1"/>
     <col min="14089" max="14089" width="7.75" style="8" customWidth="1"/>
     <col min="14090" max="14092" width="8.75" style="8"/>
-    <col min="14093" max="14093" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14093" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14094" max="14095" width="8.75" style="8"/>
-    <col min="14096" max="14096" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14096" max="14096" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14097" max="14336" width="8.75" style="8"/>
     <col min="14337" max="14337" width="5.75" style="8" customWidth="1"/>
     <col min="14338" max="14338" width="14.25" style="8" customWidth="1"/>
@@ -37408,9 +37434,9 @@
     <col min="14344" max="14344" width="12.25" style="8" customWidth="1"/>
     <col min="14345" max="14345" width="7.75" style="8" customWidth="1"/>
     <col min="14346" max="14348" width="8.75" style="8"/>
-    <col min="14349" max="14349" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14349" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14350" max="14351" width="8.75" style="8"/>
-    <col min="14352" max="14352" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14352" max="14352" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14353" max="14592" width="8.75" style="8"/>
     <col min="14593" max="14593" width="5.75" style="8" customWidth="1"/>
     <col min="14594" max="14594" width="14.25" style="8" customWidth="1"/>
@@ -37418,9 +37444,9 @@
     <col min="14600" max="14600" width="12.25" style="8" customWidth="1"/>
     <col min="14601" max="14601" width="7.75" style="8" customWidth="1"/>
     <col min="14602" max="14604" width="8.75" style="8"/>
-    <col min="14605" max="14605" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14605" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14606" max="14607" width="8.75" style="8"/>
-    <col min="14608" max="14608" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14608" max="14608" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14609" max="14848" width="8.75" style="8"/>
     <col min="14849" max="14849" width="5.75" style="8" customWidth="1"/>
     <col min="14850" max="14850" width="14.25" style="8" customWidth="1"/>
@@ -37428,9 +37454,9 @@
     <col min="14856" max="14856" width="12.25" style="8" customWidth="1"/>
     <col min="14857" max="14857" width="7.75" style="8" customWidth="1"/>
     <col min="14858" max="14860" width="8.75" style="8"/>
-    <col min="14861" max="14861" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14861" max="14861" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14862" max="14863" width="8.75" style="8"/>
-    <col min="14864" max="14864" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14864" max="14864" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14865" max="15104" width="8.75" style="8"/>
     <col min="15105" max="15105" width="5.75" style="8" customWidth="1"/>
     <col min="15106" max="15106" width="14.25" style="8" customWidth="1"/>
@@ -37438,9 +37464,9 @@
     <col min="15112" max="15112" width="12.25" style="8" customWidth="1"/>
     <col min="15113" max="15113" width="7.75" style="8" customWidth="1"/>
     <col min="15114" max="15116" width="8.75" style="8"/>
-    <col min="15117" max="15117" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15117" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15118" max="15119" width="8.75" style="8"/>
-    <col min="15120" max="15120" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15120" max="15120" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15121" max="15360" width="8.75" style="8"/>
     <col min="15361" max="15361" width="5.75" style="8" customWidth="1"/>
     <col min="15362" max="15362" width="14.25" style="8" customWidth="1"/>
@@ -37448,9 +37474,9 @@
     <col min="15368" max="15368" width="12.25" style="8" customWidth="1"/>
     <col min="15369" max="15369" width="7.75" style="8" customWidth="1"/>
     <col min="15370" max="15372" width="8.75" style="8"/>
-    <col min="15373" max="15373" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15373" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15374" max="15375" width="8.75" style="8"/>
-    <col min="15376" max="15376" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15376" max="15376" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15377" max="15616" width="8.75" style="8"/>
     <col min="15617" max="15617" width="5.75" style="8" customWidth="1"/>
     <col min="15618" max="15618" width="14.25" style="8" customWidth="1"/>
@@ -37458,9 +37484,9 @@
     <col min="15624" max="15624" width="12.25" style="8" customWidth="1"/>
     <col min="15625" max="15625" width="7.75" style="8" customWidth="1"/>
     <col min="15626" max="15628" width="8.75" style="8"/>
-    <col min="15629" max="15629" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15629" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15630" max="15631" width="8.75" style="8"/>
-    <col min="15632" max="15632" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15632" max="15632" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15633" max="15872" width="8.75" style="8"/>
     <col min="15873" max="15873" width="5.75" style="8" customWidth="1"/>
     <col min="15874" max="15874" width="14.25" style="8" customWidth="1"/>
@@ -37468,9 +37494,9 @@
     <col min="15880" max="15880" width="12.25" style="8" customWidth="1"/>
     <col min="15881" max="15881" width="7.75" style="8" customWidth="1"/>
     <col min="15882" max="15884" width="8.75" style="8"/>
-    <col min="15885" max="15885" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15885" max="15885" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15886" max="15887" width="8.75" style="8"/>
-    <col min="15888" max="15888" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15888" max="15888" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15889" max="16128" width="8.75" style="8"/>
     <col min="16129" max="16129" width="5.75" style="8" customWidth="1"/>
     <col min="16130" max="16130" width="14.25" style="8" customWidth="1"/>
@@ -37478,13 +37504,13 @@
     <col min="16136" max="16136" width="12.25" style="8" customWidth="1"/>
     <col min="16137" max="16137" width="7.75" style="8" customWidth="1"/>
     <col min="16138" max="16140" width="8.75" style="8"/>
-    <col min="16141" max="16141" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16141" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="16142" max="16143" width="8.75" style="8"/>
-    <col min="16144" max="16144" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16144" max="16144" width="14.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="16145" max="16384" width="8.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" thickTop="1">
+    <row r="1" spans="1:18" ht="17.5" thickTop="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
@@ -37510,7 +37536,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="1:18" ht="26.45" customHeight="1">
+    <row r="3" spans="1:18" ht="26.5" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="359" t="s">
         <v>255</v>
@@ -37529,7 +37555,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:18" ht="26.45" customHeight="1">
+    <row r="4" spans="1:18" ht="26.5" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="359" t="s">
         <v>257</v>
@@ -37548,7 +37574,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:18" ht="26.45" customHeight="1">
+    <row r="5" spans="1:18" ht="26.5" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="359" t="s">
         <v>259</v>
@@ -37567,7 +37593,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:18" ht="26.45" customHeight="1">
+    <row r="6" spans="1:18" ht="26.5" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="359" t="s">
         <v>261</v>
@@ -37595,7 +37621,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:18" ht="26.45" customHeight="1">
+    <row r="8" spans="1:18" ht="26.5" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="360" t="s">
         <v>263</v>
@@ -37614,7 +37640,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:18" ht="26.45" customHeight="1">
+    <row r="9" spans="1:18" ht="26.5" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -37629,7 +37655,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:18" ht="17.25" thickBot="1">
+    <row r="10" spans="1:18" ht="17.5" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -37646,7 +37672,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" ht="17.25" thickTop="1">
+    <row r="11" spans="1:18" ht="17.5" thickTop="1">
       <c r="A11" s="11"/>
       <c r="B11" s="390"/>
       <c r="C11" s="391"/>
@@ -37877,7 +37903,7 @@
       <c r="H27" s="394"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:18" ht="8.4499999999999993" customHeight="1">
+    <row r="28" spans="1:18" ht="8.5" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="393"/>
       <c r="C28" s="379"/>
@@ -37899,7 +37925,7 @@
       <c r="H29" s="394"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:18" ht="17.25" thickBot="1">
+    <row r="30" spans="1:18" ht="17.5" thickBot="1">
       <c r="A30" s="11"/>
       <c r="B30" s="395"/>
       <c r="C30" s="396"/>
@@ -37910,7 +37936,7 @@
       <c r="H30" s="397"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:18" ht="17.25" thickTop="1">
+    <row r="31" spans="1:18" ht="17.5" thickTop="1">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -37967,7 +37993,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" ht="20.25">
+    <row r="36" spans="1:9" ht="21">
       <c r="A36" s="11"/>
       <c r="B36" s="380" t="s">
         <v>266</v>
@@ -38015,7 +38041,7 @@
       <c r="H39" s="383"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="1:9" ht="17.25" thickBot="1">
+    <row r="40" spans="1:9" ht="17.5" thickBot="1">
       <c r="A40" s="29"/>
       <c r="B40" s="31"/>
       <c r="C40" s="30"/>
@@ -38026,7 +38052,7 @@
       <c r="H40" s="30"/>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:9" ht="17.25" thickTop="1"/>
+    <row r="41" spans="1:9" ht="17.5" thickTop="1"/>
     <row r="81" spans="11:11">
       <c r="K81" s="34"/>
     </row>
@@ -38093,74 +38119,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09996B99-0E50-41EE-93F5-D93E1C1A68E4}">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B91" sqref="B91:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="35" customWidth="1"/>
-    <col min="3" max="6" width="12.125" style="358" customWidth="1"/>
-    <col min="7" max="11" width="12.125" style="35" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="35" customWidth="1"/>
+    <col min="3" max="6" width="12.08203125" style="358" customWidth="1"/>
+    <col min="7" max="11" width="12.08203125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="35" customWidth="1"/>
     <col min="14" max="15" width="14" style="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.125" style="35" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="35" customWidth="1"/>
+    <col min="16" max="17" width="12.08203125" style="35" customWidth="1"/>
+    <col min="18" max="18" width="15.58203125" style="35" customWidth="1"/>
     <col min="19" max="19" width="13" style="35" customWidth="1"/>
     <col min="20" max="23" width="9" style="35"/>
     <col min="24" max="24" width="15.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.375" style="35" customWidth="1"/>
-    <col min="26" max="27" width="12.875" style="35" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.375" style="35" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" style="35" customWidth="1"/>
+    <col min="26" max="27" width="12.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.83203125" style="35" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="35"/>
     <col min="31" max="31" width="11.75" style="35" customWidth="1"/>
     <col min="32" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.45" customHeight="1">
-      <c r="A1" s="464" t="s">
+    <row r="1" spans="1:17" ht="17.5" customHeight="1">
+      <c r="A1" s="403" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="465"/>
-      <c r="C1" s="465"/>
-      <c r="D1" s="465"/>
-      <c r="E1" s="465"/>
-      <c r="F1" s="465"/>
-      <c r="G1" s="465"/>
-      <c r="H1" s="465"/>
-      <c r="I1" s="465"/>
-      <c r="J1" s="465"/>
-      <c r="K1" s="466"/>
-      <c r="L1" s="467" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="405"/>
+      <c r="L1" s="406" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="467"/>
-      <c r="N1" s="467"/>
-      <c r="O1" s="467"/>
+      <c r="M1" s="406"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="406"/>
     </row>
     <row r="2" spans="1:17" ht="300" customHeight="1">
-      <c r="A2" s="468" t="s">
+      <c r="A2" s="407" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="469"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="469"/>
-      <c r="F2" s="469"/>
-      <c r="G2" s="469"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="469"/>
-      <c r="J2" s="469"/>
-      <c r="K2" s="470"/>
+      <c r="B2" s="408"/>
+      <c r="C2" s="408"/>
+      <c r="D2" s="408"/>
+      <c r="E2" s="408"/>
+      <c r="F2" s="408"/>
+      <c r="G2" s="408"/>
+      <c r="H2" s="408"/>
+      <c r="I2" s="408"/>
+      <c r="J2" s="408"/>
+      <c r="K2" s="409"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:17" ht="17.45" customHeight="1">
+    <row r="3" spans="1:17" ht="17.5" customHeight="1">
       <c r="A3" s="37"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -38171,11 +38197,11 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.45" customHeight="1">
-      <c r="A4" s="415" t="s">
+    <row r="4" spans="1:17" ht="17.5" customHeight="1">
+      <c r="A4" s="398" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="416"/>
+      <c r="B4" s="399"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -38189,7 +38215,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17.45" customHeight="1">
+    <row r="5" spans="1:17" ht="17.5" customHeight="1">
       <c r="A5" s="43"/>
       <c r="B5" s="44"/>
       <c r="C5" s="38"/>
@@ -38206,7 +38232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17.45" customHeight="1">
+    <row r="6" spans="1:17" ht="17.5" customHeight="1">
       <c r="A6" s="45" t="s">
         <v>15</v>
       </c>
@@ -38238,7 +38264,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17.45" customHeight="1">
+    <row r="7" spans="1:17" ht="17.5" customHeight="1">
       <c r="A7" s="51" t="s">
         <v>19</v>
       </c>
@@ -38255,20 +38281,20 @@
       <c r="F7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="471" t="str">
+      <c r="G7" s="410" t="str">
         <f>'[8]2.Cover '!C8</f>
         <v>서울 관악구 신림동 1694 신림현대아파트 제103동 제303호</v>
       </c>
-      <c r="H7" s="471"/>
-      <c r="I7" s="471"/>
-      <c r="J7" s="471"/>
-      <c r="K7" s="472"/>
+      <c r="H7" s="410"/>
+      <c r="I7" s="410"/>
+      <c r="J7" s="410"/>
+      <c r="K7" s="411"/>
     </row>
-    <row r="8" spans="1:17" ht="17.45" customHeight="1">
-      <c r="A8" s="440" t="s">
+    <row r="8" spans="1:17" ht="17.5" customHeight="1">
+      <c r="A8" s="412" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="441"/>
+      <c r="B8" s="413"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -38280,7 +38306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17.45" customHeight="1">
+    <row r="9" spans="1:17" ht="17.5" customHeight="1">
       <c r="A9" s="58" t="s">
         <v>27</v>
       </c>
@@ -38302,7 +38328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="17.45" customHeight="1">
+    <row r="10" spans="1:17" ht="17.5" customHeight="1">
       <c r="A10" s="62" t="s">
         <v>31</v>
       </c>
@@ -38323,7 +38349,7 @@
       <c r="J10" s="61"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:17" ht="17.45" customHeight="1">
+    <row r="11" spans="1:17" ht="17.5" customHeight="1">
       <c r="A11" s="63" t="s">
         <v>34</v>
       </c>
@@ -38346,7 +38372,7 @@
       <c r="L11" s="65"/>
       <c r="M11" s="66"/>
     </row>
-    <row r="12" spans="1:17" ht="17.45" customHeight="1">
+    <row r="12" spans="1:17" ht="17.5" customHeight="1">
       <c r="A12" s="67" t="s">
         <v>37</v>
       </c>
@@ -38376,7 +38402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="17.45" customHeight="1">
+    <row r="13" spans="1:17" ht="17.5" customHeight="1">
       <c r="A13" s="37"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
@@ -38384,11 +38410,11 @@
       <c r="F13" s="38"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:17" ht="17.45" customHeight="1">
-      <c r="A14" s="415" t="s">
+    <row r="14" spans="1:17" ht="17.5" customHeight="1">
+      <c r="A14" s="398" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="416"/>
+      <c r="B14" s="399"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -38397,7 +38423,7 @@
       </c>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="1:17" ht="17.45" customHeight="1">
+    <row r="15" spans="1:17" ht="17.5" customHeight="1">
       <c r="A15" s="73"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -38408,7 +38434,7 @@
       <c r="P15" s="76"/>
       <c r="Q15" s="76"/>
     </row>
-    <row r="16" spans="1:17" ht="17.45" customHeight="1">
+    <row r="16" spans="1:17" ht="17.5" customHeight="1">
       <c r="A16" s="77" t="s">
         <v>44</v>
       </c>
@@ -38421,7 +38447,7 @@
       <c r="P16" s="76"/>
       <c r="Q16" s="76"/>
     </row>
-    <row r="17" spans="1:16" ht="17.45" customHeight="1" thickBot="1">
+    <row r="17" spans="1:16" ht="17.5" customHeight="1" thickBot="1">
       <c r="A17" s="80" t="s">
         <v>45</v>
       </c>
@@ -38491,7 +38517,7 @@
       <c r="J18" s="88">
         <v>44034</v>
       </c>
-      <c r="K18" s="473">
+      <c r="K18" s="414">
         <f>K55</f>
         <v>579192757</v>
       </c>
@@ -38531,7 +38557,7 @@
       <c r="J19" s="88">
         <v>44448</v>
       </c>
-      <c r="K19" s="474"/>
+      <c r="K19" s="415"/>
       <c r="L19" s="90">
         <v>9.5500000000000002E-2</v>
       </c>
@@ -38568,7 +38594,7 @@
       <c r="J20" s="88">
         <v>44631</v>
       </c>
-      <c r="K20" s="475"/>
+      <c r="K20" s="416"/>
       <c r="L20" s="90">
         <v>9.5200000000000007E-2</v>
       </c>
@@ -38587,10 +38613,10 @@
       <c r="K21" s="96"/>
     </row>
     <row r="22" spans="1:16" ht="17.649999999999999" customHeight="1">
-      <c r="A22" s="476" t="s">
+      <c r="A22" s="417" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="477"/>
+      <c r="B22" s="418"/>
       <c r="C22" s="97">
         <f>SUM(C18:C21)</f>
         <v>901200000</v>
@@ -38632,7 +38658,7 @@
         <v>0.76319533670222228</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="17.45" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:16" ht="17.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A24" s="104" t="s">
         <v>65</v>
       </c>
@@ -38644,17 +38670,17 @@
       <c r="G24" s="105"/>
       <c r="K24" s="39"/>
     </row>
-    <row r="25" spans="1:16" ht="17.45" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:16" ht="17.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A25" s="80" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="478" t="s">
+      <c r="C25" s="419" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="479"/>
+      <c r="D25" s="420"/>
       <c r="E25" s="81" t="s">
         <v>69</v>
       </c>
@@ -38666,18 +38692,18 @@
       </c>
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="1:16" ht="17.45" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="26" spans="1:16" ht="17.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A26" s="107"/>
       <c r="B26" s="108"/>
-      <c r="C26" s="480"/>
-      <c r="D26" s="481"/>
+      <c r="C26" s="421"/>
+      <c r="D26" s="422"/>
       <c r="E26" s="109"/>
       <c r="F26" s="110"/>
       <c r="G26" s="111"/>
       <c r="K26" s="39"/>
       <c r="L26" s="112"/>
     </row>
-    <row r="27" spans="1:16" ht="17.45" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="27" spans="1:16" ht="17.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A27" s="113"/>
       <c r="B27" s="114"/>
       <c r="C27" s="114"/>
@@ -38687,22 +38713,22 @@
       <c r="G27" s="115"/>
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="1:16" ht="17.45" customHeight="1" collapsed="1">
-      <c r="A28" s="415" t="s">
+    <row r="28" spans="1:16" ht="17.5" customHeight="1" collapsed="1">
+      <c r="A28" s="398" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="416"/>
-      <c r="C28" s="461"/>
-      <c r="D28" s="462"/>
+      <c r="B28" s="399"/>
+      <c r="C28" s="400"/>
+      <c r="D28" s="401"/>
       <c r="E28" s="116"/>
-      <c r="F28" s="463"/>
-      <c r="G28" s="463"/>
-      <c r="H28" s="463"/>
+      <c r="F28" s="402"/>
+      <c r="G28" s="402"/>
+      <c r="H28" s="402"/>
       <c r="I28" s="117"/>
       <c r="J28" s="118"/>
       <c r="K28" s="119"/>
     </row>
-    <row r="29" spans="1:16" ht="17.45" customHeight="1">
+    <row r="29" spans="1:16" ht="17.5" customHeight="1">
       <c r="A29" s="120"/>
       <c r="B29" s="121"/>
       <c r="C29" s="122"/>
@@ -38716,7 +38742,7 @@
       <c r="K29" s="124"/>
       <c r="L29" s="125"/>
     </row>
-    <row r="30" spans="1:16" ht="17.45" customHeight="1">
+    <row r="30" spans="1:16" ht="17.5" customHeight="1">
       <c r="A30" s="126" t="s">
         <v>73</v>
       </c>
@@ -38735,15 +38761,15 @@
       <c r="G30" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="450" t="str">
+      <c r="H30" s="429" t="str">
         <f>G7</f>
         <v>서울 관악구 신림동 1694 신림현대아파트 제103동 제303호</v>
       </c>
-      <c r="I30" s="450"/>
-      <c r="J30" s="450"/>
-      <c r="K30" s="451"/>
+      <c r="I30" s="429"/>
+      <c r="J30" s="429"/>
+      <c r="K30" s="430"/>
     </row>
-    <row r="31" spans="1:16" ht="17.45" customHeight="1">
+    <row r="31" spans="1:16" ht="17.5" customHeight="1">
       <c r="A31" s="129" t="s">
         <v>77</v>
       </c>
@@ -38764,14 +38790,14 @@
       </c>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16" ht="17.45" customHeight="1">
+    <row r="32" spans="1:16" ht="17.5" customHeight="1">
       <c r="A32" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="452" t="s">
+      <c r="B32" s="431" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="453"/>
+      <c r="C32" s="432"/>
       <c r="D32" s="134" t="s">
         <v>82</v>
       </c>
@@ -38800,7 +38826,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="17.45" customHeight="1">
+    <row r="33" spans="1:20" ht="17.5" customHeight="1">
       <c r="A33" s="133" t="s">
         <v>84</v>
       </c>
@@ -38820,10 +38846,10 @@
       <c r="F33" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="454" t="s">
+      <c r="G33" s="433" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="455"/>
+      <c r="H33" s="434"/>
       <c r="I33" s="139" t="s">
         <v>91</v>
       </c>
@@ -38841,7 +38867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="17.45" customHeight="1">
+    <row r="34" spans="1:20" ht="17.5" customHeight="1">
       <c r="A34" s="63" t="s">
         <v>95</v>
       </c>
@@ -38861,18 +38887,18 @@
       <c r="F34" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="456" t="s">
+      <c r="G34" s="435" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="456"/>
-      <c r="I34" s="456"/>
-      <c r="J34" s="457"/>
+      <c r="H34" s="435"/>
+      <c r="I34" s="435"/>
+      <c r="J34" s="436"/>
       <c r="K34" s="39"/>
       <c r="L34" s="147"/>
       <c r="M34" s="125"/>
       <c r="N34" s="125"/>
     </row>
-    <row r="35" spans="1:20" ht="17.45" customHeight="1">
+    <row r="35" spans="1:20" ht="17.5" customHeight="1">
       <c r="A35" s="148">
         <v>44927</v>
       </c>
@@ -38887,7 +38913,7 @@
       <c r="M35" s="125"/>
       <c r="N35" s="125"/>
     </row>
-    <row r="36" spans="1:20" ht="17.45" customHeight="1">
+    <row r="36" spans="1:20" ht="17.5" customHeight="1">
       <c r="A36" s="154">
         <v>44562</v>
       </c>
@@ -38906,7 +38932,7 @@
       <c r="K36" s="39"/>
       <c r="N36" s="158"/>
     </row>
-    <row r="37" spans="1:20" ht="17.45" customHeight="1">
+    <row r="37" spans="1:20" ht="17.5" customHeight="1">
       <c r="A37" s="159" t="s">
         <v>101</v>
       </c>
@@ -38921,7 +38947,7 @@
       <c r="J37" s="163"/>
       <c r="K37" s="39"/>
     </row>
-    <row r="38" spans="1:20" ht="17.45" customHeight="1">
+    <row r="38" spans="1:20" ht="17.5" customHeight="1">
       <c r="A38" s="164" t="s">
         <v>102</v>
       </c>
@@ -38945,14 +38971,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="17.45" customHeight="1">
+    <row r="39" spans="1:20" ht="17.5" customHeight="1">
       <c r="A39" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="458" t="s">
+      <c r="B39" s="437" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="458"/>
+      <c r="C39" s="437"/>
       <c r="D39" s="144" t="s">
         <v>108</v>
       </c>
@@ -38969,14 +38995,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="17.45" customHeight="1">
+    <row r="40" spans="1:20" ht="17.5" customHeight="1">
       <c r="A40" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="459" t="s">
+      <c r="B40" s="438" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="460"/>
+      <c r="C40" s="439"/>
       <c r="D40" s="172" t="s">
         <v>111</v>
       </c>
@@ -38993,7 +39019,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="17.45" customHeight="1">
+    <row r="41" spans="1:20" ht="17.5" customHeight="1">
       <c r="A41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
@@ -39008,11 +39034,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="17.45" customHeight="1">
-      <c r="A42" s="415" t="s">
+    <row r="42" spans="1:20" ht="17.5" customHeight="1">
+      <c r="A42" s="398" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="416"/>
+      <c r="B42" s="399"/>
       <c r="C42" s="118"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
@@ -39032,7 +39058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="17.45" customHeight="1">
+    <row r="43" spans="1:20" ht="17.5" customHeight="1">
       <c r="A43" s="175"/>
       <c r="B43" s="118"/>
       <c r="C43" s="118"/>
@@ -39051,21 +39077,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="17.45" customHeight="1">
+    <row r="44" spans="1:20" ht="17.5" customHeight="1">
       <c r="A44" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="435" t="s">
+      <c r="B44" s="442" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="436"/>
+      <c r="C44" s="443"/>
       <c r="D44" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="435" t="s">
+      <c r="E44" s="442" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="437"/>
+      <c r="F44" s="444"/>
       <c r="G44" s="157"/>
       <c r="H44" s="180"/>
       <c r="I44" s="118"/>
@@ -39078,7 +39104,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="17.45" customHeight="1">
+    <row r="45" spans="1:20" ht="17.5" customHeight="1">
       <c r="A45" s="181" t="s">
         <v>125</v>
       </c>
@@ -39108,7 +39134,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="17.45" customHeight="1">
+    <row r="46" spans="1:20" ht="17.5" customHeight="1">
       <c r="A46" s="185" t="s">
         <v>133</v>
       </c>
@@ -39142,7 +39168,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="17.45" customHeight="1">
+    <row r="47" spans="1:20" ht="17.5" customHeight="1">
       <c r="A47" s="191" t="s">
         <v>139</v>
       </c>
@@ -39176,7 +39202,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="17.45" customHeight="1">
+    <row r="48" spans="1:20" ht="17.5" customHeight="1">
       <c r="A48" s="194" t="s">
         <v>146</v>
       </c>
@@ -39214,7 +39240,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="17.45" customHeight="1">
+    <row r="49" spans="1:19" ht="17.5" customHeight="1">
       <c r="A49" s="200"/>
       <c r="B49" s="201"/>
       <c r="C49" s="202"/>
@@ -39227,7 +39253,7 @@
       <c r="J49" s="118"/>
       <c r="K49" s="119"/>
     </row>
-    <row r="50" spans="1:19" ht="17.45" customHeight="1">
+    <row r="50" spans="1:19" ht="17.5" customHeight="1">
       <c r="A50" s="206"/>
       <c r="B50" s="207"/>
       <c r="C50" s="128"/>
@@ -39240,11 +39266,11 @@
       <c r="J50" s="208"/>
       <c r="K50" s="210"/>
     </row>
-    <row r="51" spans="1:19" ht="17.45" customHeight="1">
-      <c r="A51" s="415" t="s">
+    <row r="51" spans="1:19" ht="17.5" customHeight="1">
+      <c r="A51" s="398" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="416"/>
+      <c r="B51" s="399"/>
       <c r="C51" s="211"/>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
@@ -39254,10 +39280,10 @@
       <c r="I51" s="41"/>
       <c r="J51" s="41"/>
       <c r="K51" s="42"/>
-      <c r="L51" s="444" t="s">
+      <c r="L51" s="423" t="s">
         <v>152</v>
       </c>
-      <c r="M51" s="445"/>
+      <c r="M51" s="424"/>
       <c r="N51" s="212" t="s">
         <v>153</v>
       </c>
@@ -39266,7 +39292,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="17.45" customHeight="1">
+    <row r="52" spans="1:19" ht="17.5" customHeight="1">
       <c r="A52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
@@ -39275,7 +39301,7 @@
       <c r="G52" s="214"/>
       <c r="K52" s="39"/>
     </row>
-    <row r="53" spans="1:19" ht="17.45" customHeight="1">
+    <row r="53" spans="1:19" ht="17.5" customHeight="1">
       <c r="A53" s="215" t="s">
         <v>154</v>
       </c>
@@ -39296,7 +39322,7 @@
       <c r="N53" s="61"/>
       <c r="O53" s="61"/>
     </row>
-    <row r="54" spans="1:19" ht="17.45" customHeight="1">
+    <row r="54" spans="1:19" ht="17.5" customHeight="1">
       <c r="A54" s="80" t="s">
         <v>156</v>
       </c>
@@ -39355,7 +39381,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="17.45" customHeight="1">
+    <row r="55" spans="1:19" ht="17.5" customHeight="1">
       <c r="A55" s="221">
         <v>1</v>
       </c>
@@ -39390,11 +39416,11 @@
         <f>F80</f>
         <v>40000000</v>
       </c>
-      <c r="J55" s="446">
+      <c r="J55" s="425">
         <f>F62</f>
         <v>623358517.17391312</v>
       </c>
-      <c r="K55" s="448">
+      <c r="K55" s="427">
         <f>ROUND(MIN((J55-H62)*(1-$B$10*$B$12/365),D22+E22),0)</f>
         <v>579192757</v>
       </c>
@@ -39431,7 +39457,7 @@
         <v>6171249.3200217392</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="17.45" hidden="1" customHeight="1">
+    <row r="56" spans="1:19" ht="17.5" hidden="1" customHeight="1">
       <c r="A56" s="229">
         <v>2</v>
       </c>
@@ -39443,8 +39469,8 @@
       <c r="G56" s="233"/>
       <c r="H56" s="93"/>
       <c r="I56" s="86"/>
-      <c r="J56" s="447"/>
-      <c r="K56" s="449"/>
+      <c r="J56" s="426"/>
+      <c r="K56" s="428"/>
       <c r="L56" s="234"/>
       <c r="M56" s="235"/>
       <c r="N56" s="236"/>
@@ -39454,7 +39480,7 @@
       <c r="R56" s="93"/>
       <c r="S56" s="237"/>
     </row>
-    <row r="57" spans="1:19" ht="17.45" customHeight="1">
+    <row r="57" spans="1:19" ht="17.5" customHeight="1">
       <c r="A57" s="238" t="s">
         <v>63</v>
       </c>
@@ -39525,7 +39551,7 @@
         <v>6171249.3200217392</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="17.45" customHeight="1">
+    <row r="58" spans="1:19" ht="17.5" customHeight="1">
       <c r="A58" s="73"/>
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
@@ -39550,7 +39576,7 @@
         <v>6.1509224430379705E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="17.45" customHeight="1">
+    <row r="59" spans="1:19" ht="17.5" customHeight="1">
       <c r="A59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
@@ -39563,7 +39589,7 @@
       <c r="L59" s="38"/>
       <c r="O59" s="147"/>
     </row>
-    <row r="60" spans="1:19" ht="17.45" customHeight="1">
+    <row r="60" spans="1:19" ht="17.5" customHeight="1">
       <c r="A60" s="251" t="s">
         <v>176</v>
       </c>
@@ -39625,7 +39651,7 @@
         <f>B18</f>
         <v>9401-****-3972-7</v>
       </c>
-      <c r="C62" s="438">
+      <c r="C62" s="445">
         <f>(H57-I57)</f>
         <v>627684277.17391312</v>
       </c>
@@ -39637,7 +39663,7 @@
         <f>D18+E18+F18+D18*$B$12*L18/365</f>
         <v>623892415.06849313</v>
       </c>
-      <c r="F62" s="438">
+      <c r="F62" s="445">
         <f>MAX(MIN(C67,E67,D67)-G67,0)</f>
         <v>623358517.17391312</v>
       </c>
@@ -39645,7 +39671,7 @@
         <f>C18*0.48%</f>
         <v>3173759.9999999995</v>
       </c>
-      <c r="H62" s="438">
+      <c r="H62" s="445">
         <f>F62*$B$11</f>
         <v>5921905.9131521741</v>
       </c>
@@ -39664,7 +39690,7 @@
         <f t="shared" ref="B63:B64" si="1">B19</f>
         <v>9401-****-8070-0</v>
       </c>
-      <c r="C63" s="439"/>
+      <c r="C63" s="446"/>
       <c r="D63" s="253">
         <f t="shared" ref="D63:D64" si="2">C19</f>
         <v>120000000</v>
@@ -39673,12 +39699,12 @@
         <f t="shared" ref="E63:E64" si="3">D19+E19+F19+D19*$B$12*L19/365</f>
         <v>110022308.08219178</v>
       </c>
-      <c r="F63" s="439"/>
+      <c r="F63" s="446"/>
       <c r="G63" s="253">
         <f t="shared" ref="G63:G64" si="4">C19*0.48%</f>
         <v>576000</v>
       </c>
-      <c r="H63" s="439"/>
+      <c r="H63" s="446"/>
       <c r="I63" s="255">
         <v>0</v>
       </c>
@@ -39694,7 +39720,7 @@
         <f t="shared" si="1"/>
         <v>9401-****-9075-3</v>
       </c>
-      <c r="C64" s="439"/>
+      <c r="C64" s="446"/>
       <c r="D64" s="253">
         <f t="shared" si="2"/>
         <v>120000000</v>
@@ -39703,12 +39729,12 @@
         <f t="shared" si="3"/>
         <v>109728199.0410959</v>
       </c>
-      <c r="F64" s="439"/>
+      <c r="F64" s="446"/>
       <c r="G64" s="253">
         <f t="shared" si="4"/>
         <v>576000</v>
       </c>
-      <c r="H64" s="439"/>
+      <c r="H64" s="446"/>
       <c r="I64" s="255">
         <v>0</v>
       </c>
@@ -39780,7 +39806,7 @@
       <c r="K67" s="39"/>
       <c r="L67" s="176"/>
     </row>
-    <row r="68" spans="1:21" ht="17.45" customHeight="1">
+    <row r="68" spans="1:21" ht="17.5" customHeight="1">
       <c r="A68" s="37" t="s">
         <v>182</v>
       </c>
@@ -39790,7 +39816,7 @@
       <c r="F68" s="38"/>
       <c r="K68" s="39"/>
     </row>
-    <row r="69" spans="1:21" ht="17.45" customHeight="1">
+    <row r="69" spans="1:21" ht="17.5" customHeight="1">
       <c r="A69" s="37" t="s">
         <v>183</v>
       </c>
@@ -39811,7 +39837,7 @@
       <c r="T69"/>
       <c r="U69"/>
     </row>
-    <row r="70" spans="1:21" ht="17.45" customHeight="1">
+    <row r="70" spans="1:21" ht="17.5" customHeight="1">
       <c r="A70" s="264"/>
       <c r="B70" s="61"/>
       <c r="C70" s="38"/>
@@ -39828,11 +39854,11 @@
       <c r="P70"/>
       <c r="U70"/>
     </row>
-    <row r="71" spans="1:21" ht="17.45" customHeight="1">
-      <c r="A71" s="440" t="s">
+    <row r="71" spans="1:21" ht="17.5" customHeight="1">
+      <c r="A71" s="412" t="s">
         <v>184</v>
       </c>
-      <c r="B71" s="441"/>
+      <c r="B71" s="413"/>
       <c r="C71" s="35"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38"/>
@@ -39845,7 +39871,7 @@
       <c r="P71"/>
       <c r="U71"/>
     </row>
-    <row r="72" spans="1:21" ht="17.45" customHeight="1">
+    <row r="72" spans="1:21" ht="17.5" customHeight="1">
       <c r="A72" s="251"/>
       <c r="C72" s="70"/>
       <c r="D72" s="70"/>
@@ -39863,7 +39889,7 @@
       <c r="P72"/>
       <c r="U72"/>
     </row>
-    <row r="73" spans="1:21" ht="17.45" customHeight="1">
+    <row r="73" spans="1:21" ht="17.5" customHeight="1">
       <c r="A73" s="80" t="s">
         <v>185</v>
       </c>
@@ -39882,13 +39908,13 @@
       <c r="F73" s="216" t="s">
         <v>189</v>
       </c>
-      <c r="G73" s="442" t="s">
+      <c r="G73" s="447" t="s">
         <v>190</v>
       </c>
-      <c r="H73" s="442"/>
-      <c r="I73" s="442"/>
-      <c r="J73" s="442"/>
-      <c r="K73" s="443"/>
+      <c r="H73" s="447"/>
+      <c r="I73" s="447"/>
+      <c r="J73" s="447"/>
+      <c r="K73" s="448"/>
       <c r="L73" s="267"/>
       <c r="M73" s="268"/>
       <c r="N73"/>
@@ -39896,7 +39922,7 @@
       <c r="P73"/>
       <c r="U73"/>
     </row>
-    <row r="74" spans="1:21" ht="17.45" customHeight="1">
+    <row r="74" spans="1:21" ht="17.5" customHeight="1">
       <c r="A74" s="269"/>
       <c r="B74" s="270"/>
       <c r="C74" s="271" t="s">
@@ -39907,13 +39933,13 @@
       <c r="F74" s="87">
         <v>37000000</v>
       </c>
-      <c r="G74" s="428" t="s">
+      <c r="G74" s="440" t="s">
         <v>192</v>
       </c>
-      <c r="H74" s="428"/>
-      <c r="I74" s="428"/>
-      <c r="J74" s="428"/>
-      <c r="K74" s="429"/>
+      <c r="H74" s="440"/>
+      <c r="I74" s="440"/>
+      <c r="J74" s="440"/>
+      <c r="K74" s="441"/>
       <c r="L74" s="265"/>
       <c r="M74"/>
       <c r="N74"/>
@@ -39925,7 +39951,7 @@
       <c r="T74"/>
       <c r="U74"/>
     </row>
-    <row r="75" spans="1:21" ht="17.45" customHeight="1">
+    <row r="75" spans="1:21" ht="17.5" customHeight="1">
       <c r="A75" s="269"/>
       <c r="B75" s="270"/>
       <c r="C75" s="272" t="s">
@@ -39936,13 +39962,13 @@
       <c r="F75" s="273">
         <v>0</v>
       </c>
-      <c r="G75" s="428" t="s">
+      <c r="G75" s="440" t="s">
         <v>194</v>
       </c>
-      <c r="H75" s="428"/>
-      <c r="I75" s="428"/>
-      <c r="J75" s="428"/>
-      <c r="K75" s="429"/>
+      <c r="H75" s="440"/>
+      <c r="I75" s="440"/>
+      <c r="J75" s="440"/>
+      <c r="K75" s="441"/>
       <c r="L75" s="266"/>
       <c r="M75"/>
       <c r="N75"/>
@@ -39954,7 +39980,7 @@
       <c r="T75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" ht="17.45" customHeight="1">
+    <row r="76" spans="1:21" ht="17.5" customHeight="1">
       <c r="A76" s="269"/>
       <c r="B76" s="270"/>
       <c r="C76" s="272" t="s">
@@ -39966,25 +39992,25 @@
         <f>F57*0.3%</f>
         <v>3000000</v>
       </c>
-      <c r="G76" s="428" t="s">
+      <c r="G76" s="440" t="s">
         <v>196</v>
       </c>
-      <c r="H76" s="428"/>
-      <c r="I76" s="428"/>
-      <c r="J76" s="428"/>
-      <c r="K76" s="429"/>
+      <c r="H76" s="440"/>
+      <c r="I76" s="440"/>
+      <c r="J76" s="440"/>
+      <c r="K76" s="441"/>
       <c r="L76" s="275"/>
-      <c r="M76" s="430"/>
-      <c r="N76" s="430"/>
-      <c r="O76" s="430"/>
-      <c r="P76" s="430"/>
-      <c r="Q76" s="430"/>
-      <c r="R76" s="430"/>
-      <c r="S76" s="430"/>
-      <c r="T76" s="430"/>
-      <c r="U76" s="430"/>
+      <c r="M76" s="449"/>
+      <c r="N76" s="449"/>
+      <c r="O76" s="449"/>
+      <c r="P76" s="449"/>
+      <c r="Q76" s="449"/>
+      <c r="R76" s="449"/>
+      <c r="S76" s="449"/>
+      <c r="T76" s="449"/>
+      <c r="U76" s="449"/>
     </row>
-    <row r="77" spans="1:21" ht="17.45" customHeight="1">
+    <row r="77" spans="1:21" ht="17.5" customHeight="1">
       <c r="A77" s="269"/>
       <c r="B77" s="270"/>
       <c r="C77" s="272" t="s">
@@ -39995,25 +40021,25 @@
       <c r="F77" s="273">
         <v>0</v>
       </c>
-      <c r="G77" s="428" t="s">
+      <c r="G77" s="440" t="s">
         <v>194</v>
       </c>
-      <c r="H77" s="428"/>
-      <c r="I77" s="428"/>
-      <c r="J77" s="428"/>
-      <c r="K77" s="429"/>
+      <c r="H77" s="440"/>
+      <c r="I77" s="440"/>
+      <c r="J77" s="440"/>
+      <c r="K77" s="441"/>
       <c r="L77" s="275"/>
-      <c r="M77" s="434"/>
+      <c r="M77" s="450"/>
       <c r="N77" s="276"/>
-      <c r="O77" s="434"/>
-      <c r="P77" s="434"/>
+      <c r="O77" s="450"/>
+      <c r="P77" s="450"/>
       <c r="Q77" s="276"/>
-      <c r="R77" s="434"/>
-      <c r="S77" s="434"/>
+      <c r="R77" s="450"/>
+      <c r="S77" s="450"/>
       <c r="T77" s="276"/>
-      <c r="U77" s="434"/>
+      <c r="U77" s="450"/>
     </row>
-    <row r="78" spans="1:21" ht="17.45" customHeight="1">
+    <row r="78" spans="1:21" ht="17.5" customHeight="1">
       <c r="A78" s="269"/>
       <c r="B78" s="270"/>
       <c r="C78" s="272" t="s">
@@ -40024,25 +40050,25 @@
       <c r="F78" s="273">
         <v>0</v>
       </c>
-      <c r="G78" s="428" t="s">
+      <c r="G78" s="440" t="s">
         <v>199</v>
       </c>
-      <c r="H78" s="428"/>
-      <c r="I78" s="428"/>
-      <c r="J78" s="428"/>
-      <c r="K78" s="429"/>
+      <c r="H78" s="440"/>
+      <c r="I78" s="440"/>
+      <c r="J78" s="440"/>
+      <c r="K78" s="441"/>
       <c r="L78" s="275"/>
-      <c r="M78" s="434"/>
+      <c r="M78" s="450"/>
       <c r="N78" s="276"/>
-      <c r="O78" s="434"/>
-      <c r="P78" s="434"/>
+      <c r="O78" s="450"/>
+      <c r="P78" s="450"/>
       <c r="Q78" s="276"/>
-      <c r="R78" s="434"/>
-      <c r="S78" s="434"/>
+      <c r="R78" s="450"/>
+      <c r="S78" s="450"/>
       <c r="T78" s="276"/>
-      <c r="U78" s="434"/>
+      <c r="U78" s="450"/>
     </row>
-    <row r="79" spans="1:21" ht="17.45" customHeight="1">
+    <row r="79" spans="1:21" ht="17.5" customHeight="1">
       <c r="A79" s="269"/>
       <c r="B79" s="270"/>
       <c r="C79" s="277" t="s">
@@ -40053,13 +40079,13 @@
       <c r="F79" s="273">
         <v>0</v>
       </c>
-      <c r="G79" s="431" t="s">
+      <c r="G79" s="451" t="s">
         <v>199</v>
       </c>
-      <c r="H79" s="428"/>
-      <c r="I79" s="428"/>
-      <c r="J79" s="428"/>
-      <c r="K79" s="429"/>
+      <c r="H79" s="440"/>
+      <c r="I79" s="440"/>
+      <c r="J79" s="440"/>
+      <c r="K79" s="441"/>
       <c r="L79" s="267"/>
       <c r="M79" s="278"/>
       <c r="N79" s="278"/>
@@ -40071,7 +40097,7 @@
       <c r="T79" s="278"/>
       <c r="U79" s="280"/>
     </row>
-    <row r="80" spans="1:21" ht="17.45" customHeight="1">
+    <row r="80" spans="1:21" ht="17.5" customHeight="1">
       <c r="A80" s="281"/>
       <c r="B80" s="282"/>
       <c r="C80" s="282" t="s">
@@ -40083,11 +40109,11 @@
         <f>SUM(F74:F79)</f>
         <v>40000000</v>
       </c>
-      <c r="G80" s="432"/>
-      <c r="H80" s="432"/>
-      <c r="I80" s="432"/>
-      <c r="J80" s="432"/>
-      <c r="K80" s="433"/>
+      <c r="G80" s="452"/>
+      <c r="H80" s="452"/>
+      <c r="I80" s="452"/>
+      <c r="J80" s="452"/>
+      <c r="K80" s="453"/>
       <c r="L80" s="267"/>
       <c r="M80" s="285"/>
       <c r="N80" s="285"/>
@@ -40099,7 +40125,7 @@
       <c r="T80" s="285"/>
       <c r="U80" s="286"/>
     </row>
-    <row r="81" spans="1:21" ht="17.45" customHeight="1">
+    <row r="81" spans="1:21" ht="17.5" customHeight="1">
       <c r="A81" s="37"/>
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
@@ -40117,18 +40143,18 @@
       <c r="T81" s="278"/>
       <c r="U81" s="280"/>
     </row>
-    <row r="82" spans="1:21" ht="17.45" customHeight="1">
-      <c r="A82" s="415" t="s">
+    <row r="82" spans="1:21" ht="17.5" customHeight="1">
+      <c r="A82" s="398" t="s">
         <v>201</v>
       </c>
-      <c r="B82" s="416"/>
+      <c r="B82" s="399"/>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="K82" s="39"/>
     </row>
-    <row r="83" spans="1:21" ht="17.45" customHeight="1">
+    <row r="83" spans="1:21" ht="17.5" customHeight="1">
       <c r="A83" s="37"/>
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
@@ -40136,56 +40162,56 @@
       <c r="F83" s="38"/>
       <c r="K83" s="39"/>
     </row>
-    <row r="84" spans="1:21" ht="17.45" customHeight="1">
-      <c r="A84" s="417" t="s">
+    <row r="84" spans="1:21" ht="17.5" customHeight="1">
+      <c r="A84" s="454" t="s">
         <v>202</v>
       </c>
-      <c r="B84" s="418"/>
-      <c r="C84" s="419" t="s">
+      <c r="B84" s="455"/>
+      <c r="C84" s="456" t="s">
         <v>203</v>
       </c>
-      <c r="D84" s="420"/>
-      <c r="E84" s="420"/>
-      <c r="F84" s="420"/>
-      <c r="G84" s="420"/>
-      <c r="H84" s="421"/>
+      <c r="D84" s="457"/>
+      <c r="E84" s="457"/>
+      <c r="F84" s="457"/>
+      <c r="G84" s="457"/>
+      <c r="H84" s="458"/>
       <c r="K84" s="119"/>
     </row>
-    <row r="85" spans="1:21" ht="17.45" customHeight="1">
-      <c r="A85" s="422" t="s">
+    <row r="85" spans="1:21" ht="17.5" customHeight="1">
+      <c r="A85" s="459" t="s">
         <v>204</v>
       </c>
-      <c r="B85" s="423"/>
-      <c r="C85" s="424" t="s">
+      <c r="B85" s="460"/>
+      <c r="C85" s="461" t="s">
         <v>205</v>
       </c>
-      <c r="D85" s="425"/>
-      <c r="E85" s="425"/>
-      <c r="F85" s="425"/>
-      <c r="G85" s="425"/>
-      <c r="H85" s="426"/>
+      <c r="D85" s="462"/>
+      <c r="E85" s="462"/>
+      <c r="F85" s="462"/>
+      <c r="G85" s="462"/>
+      <c r="H85" s="463"/>
       <c r="K85" s="119"/>
     </row>
-    <row r="86" spans="1:21" ht="17.45" customHeight="1">
-      <c r="A86" s="422" t="s">
+    <row r="86" spans="1:21" ht="17.5" customHeight="1">
+      <c r="A86" s="459" t="s">
         <v>206</v>
       </c>
-      <c r="B86" s="423"/>
-      <c r="C86" s="425" t="s">
+      <c r="B86" s="460"/>
+      <c r="C86" s="462" t="s">
         <v>207</v>
       </c>
-      <c r="D86" s="427"/>
-      <c r="E86" s="425" t="s">
+      <c r="D86" s="464"/>
+      <c r="E86" s="462" t="s">
         <v>208</v>
       </c>
-      <c r="F86" s="427"/>
-      <c r="G86" s="425" t="s">
+      <c r="F86" s="464"/>
+      <c r="G86" s="462" t="s">
         <v>209</v>
       </c>
-      <c r="H86" s="426"/>
+      <c r="H86" s="463"/>
       <c r="K86" s="119"/>
     </row>
-    <row r="87" spans="1:21" ht="17.45" customHeight="1">
+    <row r="87" spans="1:21" ht="17.5" customHeight="1">
       <c r="A87" s="287" t="s">
         <v>158</v>
       </c>
@@ -40212,7 +40238,7 @@
       </c>
       <c r="K87" s="119"/>
     </row>
-    <row r="88" spans="1:21" ht="17.45" customHeight="1">
+    <row r="88" spans="1:21" ht="17.5" customHeight="1">
       <c r="A88" s="291" t="s">
         <v>92</v>
       </c>
@@ -40241,7 +40267,7 @@
       <c r="K88" s="119"/>
       <c r="L88" s="297"/>
     </row>
-    <row r="89" spans="1:21" ht="17.45" customHeight="1">
+    <row r="89" spans="1:21" ht="17.5" customHeight="1">
       <c r="A89" s="298"/>
       <c r="B89" s="299"/>
       <c r="C89" s="300"/>
@@ -40262,14 +40288,14 @@
       <c r="T89"/>
       <c r="U89"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" ht="17">
       <c r="A90" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="B90" s="410" t="s">
+      <c r="B90" s="468" t="s">
         <v>215</v>
       </c>
-      <c r="C90" s="410"/>
+      <c r="C90" s="468"/>
       <c r="D90" s="81" t="s">
         <v>216</v>
       </c>
@@ -40305,14 +40331,14 @@
       <c r="T90"/>
       <c r="U90"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" ht="17">
       <c r="A91" s="221" t="s">
         <v>223</v>
       </c>
-      <c r="B91" s="411" t="s">
+      <c r="B91" s="469" t="s">
         <v>224</v>
       </c>
-      <c r="C91" s="412"/>
+      <c r="C91" s="470"/>
       <c r="D91" s="304">
         <v>44938</v>
       </c>
@@ -40352,10 +40378,10 @@
       <c r="T91"/>
       <c r="U91"/>
     </row>
-    <row r="92" spans="1:21" hidden="1">
+    <row r="92" spans="1:21" ht="17" hidden="1">
       <c r="A92" s="229"/>
-      <c r="B92" s="411"/>
-      <c r="C92" s="412"/>
+      <c r="B92" s="469"/>
+      <c r="C92" s="470"/>
       <c r="D92" s="307"/>
       <c r="E92" s="273"/>
       <c r="F92" s="308"/>
@@ -40380,10 +40406,10 @@
       <c r="T92"/>
       <c r="U92"/>
     </row>
-    <row r="93" spans="1:21" hidden="1">
+    <row r="93" spans="1:21" ht="17" hidden="1">
       <c r="A93" s="229"/>
-      <c r="B93" s="411"/>
-      <c r="C93" s="412"/>
+      <c r="B93" s="469"/>
+      <c r="C93" s="470"/>
       <c r="D93" s="307"/>
       <c r="E93" s="308"/>
       <c r="F93" s="308"/>
@@ -40408,10 +40434,10 @@
       <c r="T93"/>
       <c r="U93"/>
     </row>
-    <row r="94" spans="1:21" hidden="1">
+    <row r="94" spans="1:21" ht="17" hidden="1">
       <c r="A94" s="229"/>
-      <c r="B94" s="411"/>
-      <c r="C94" s="412"/>
+      <c r="B94" s="469"/>
+      <c r="C94" s="470"/>
       <c r="D94" s="307"/>
       <c r="E94" s="308"/>
       <c r="F94" s="308"/>
@@ -40436,14 +40462,14 @@
       <c r="T94"/>
       <c r="U94"/>
     </row>
-    <row r="95" spans="1:21" ht="17.25" thickBot="1">
+    <row r="95" spans="1:21" ht="17.5" thickBot="1">
       <c r="A95" s="313" t="s">
         <v>225</v>
       </c>
-      <c r="B95" s="413" t="s">
+      <c r="B95" s="471" t="s">
         <v>226</v>
       </c>
-      <c r="C95" s="414"/>
+      <c r="C95" s="472"/>
       <c r="D95" s="314">
         <v>44937</v>
       </c>
@@ -40483,7 +40509,7 @@
       <c r="T95"/>
       <c r="U95"/>
     </row>
-    <row r="96" spans="1:21" ht="17.45" customHeight="1" thickBot="1">
+    <row r="96" spans="1:21" ht="17.5" customHeight="1" thickBot="1">
       <c r="A96" s="37"/>
       <c r="C96" s="35"/>
       <c r="D96" s="38"/>
@@ -40502,7 +40528,7 @@
       <c r="N96" s="147"/>
       <c r="O96" s="321"/>
     </row>
-    <row r="97" spans="1:18" ht="17.45" customHeight="1">
+    <row r="97" spans="1:18" ht="17.5" customHeight="1">
       <c r="A97" s="322"/>
       <c r="B97" s="61"/>
       <c r="C97" s="35"/>
@@ -40515,11 +40541,11 @@
       <c r="L97" s="302"/>
       <c r="M97" s="176"/>
     </row>
-    <row r="98" spans="1:18" ht="17.45" customHeight="1">
-      <c r="A98" s="415" t="s">
+    <row r="98" spans="1:18" ht="17.5" customHeight="1">
+      <c r="A98" s="398" t="s">
         <v>228</v>
       </c>
-      <c r="B98" s="416"/>
+      <c r="B98" s="399"/>
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38"/>
@@ -40527,7 +40553,7 @@
       <c r="J98" s="147"/>
       <c r="K98" s="119"/>
     </row>
-    <row r="99" spans="1:18" ht="17.45" customHeight="1">
+    <row r="99" spans="1:18" ht="17.5" customHeight="1">
       <c r="A99" s="37"/>
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
@@ -40537,17 +40563,17 @@
       <c r="K99" s="119"/>
       <c r="L99" s="147"/>
     </row>
-    <row r="100" spans="1:18" ht="17.45" customHeight="1">
+    <row r="100" spans="1:18" ht="17.5" customHeight="1">
       <c r="A100" s="80" t="s">
         <v>229</v>
       </c>
       <c r="B100" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="C100" s="410" t="s">
+      <c r="C100" s="468" t="s">
         <v>231</v>
       </c>
-      <c r="D100" s="410"/>
+      <c r="D100" s="468"/>
       <c r="E100" s="81" t="s">
         <v>232</v>
       </c>
@@ -40565,7 +40591,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="17.45" customHeight="1">
+    <row r="101" spans="1:18" ht="17.5" customHeight="1">
       <c r="A101" s="229">
         <v>1</v>
       </c>
@@ -40592,7 +40618,7 @@
         <v>7741233.5760314669</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="17.45" hidden="1" customHeight="1">
+    <row r="102" spans="1:18" ht="17.5" hidden="1" customHeight="1">
       <c r="A102" s="229">
         <v>2</v>
       </c>
@@ -40619,7 +40645,7 @@
         <v>2947598.253275109</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="17.45" hidden="1" customHeight="1">
+    <row r="103" spans="1:18" ht="17.5" hidden="1" customHeight="1">
       <c r="A103" s="229">
         <v>3</v>
       </c>
@@ -40646,7 +40672,7 @@
         <v>2473314.2410830515</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="17.45" customHeight="1">
+    <row r="104" spans="1:18" ht="17.5" customHeight="1">
       <c r="A104" s="229">
         <v>2</v>
       </c>
@@ -40673,7 +40699,7 @@
         <v>7950456.1051133992</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="17.45" customHeight="1" thickBot="1">
+    <row r="105" spans="1:18" ht="17.5" customHeight="1" thickBot="1">
       <c r="A105" s="313">
         <v>3</v>
       </c>
@@ -40700,7 +40726,7 @@
         <v>7783078.081847854</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="17.45" customHeight="1" thickBot="1">
+    <row r="106" spans="1:18" ht="17.5" customHeight="1" thickBot="1">
       <c r="A106" s="37" t="s">
         <v>244</v>
       </c>
@@ -40725,7 +40751,7 @@
       <c r="O106" s="300"/>
       <c r="P106" s="147"/>
     </row>
-    <row r="107" spans="1:18" ht="17.45" customHeight="1">
+    <row r="107" spans="1:18" ht="17.5" customHeight="1">
       <c r="A107" s="322"/>
       <c r="B107" s="61"/>
       <c r="C107" s="70"/>
@@ -40739,14 +40765,14 @@
       <c r="K107" s="344"/>
       <c r="M107" s="158"/>
     </row>
-    <row r="108" spans="1:18" s="349" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A108" s="401" t="s">
+    <row r="108" spans="1:18" s="349" customFormat="1" ht="35.15" customHeight="1">
+      <c r="A108" s="473" t="s">
         <v>245</v>
       </c>
-      <c r="B108" s="402"/>
-      <c r="C108" s="402"/>
-      <c r="D108" s="402"/>
-      <c r="E108" s="402"/>
+      <c r="B108" s="474"/>
+      <c r="C108" s="474"/>
+      <c r="D108" s="474"/>
+      <c r="E108" s="474"/>
       <c r="F108" s="345"/>
       <c r="G108" s="345"/>
       <c r="H108" s="345"/>
@@ -40758,47 +40784,47 @@
       </c>
     </row>
     <row r="109" spans="1:18" s="349" customFormat="1" ht="150" customHeight="1">
-      <c r="A109" s="398" t="s">
+      <c r="A109" s="475" t="s">
         <v>247</v>
       </c>
-      <c r="B109" s="399"/>
-      <c r="C109" s="399"/>
-      <c r="D109" s="399"/>
-      <c r="E109" s="399"/>
-      <c r="F109" s="399"/>
-      <c r="G109" s="399"/>
-      <c r="H109" s="399"/>
-      <c r="I109" s="399"/>
-      <c r="J109" s="399"/>
-      <c r="K109" s="400"/>
+      <c r="B109" s="476"/>
+      <c r="C109" s="476"/>
+      <c r="D109" s="476"/>
+      <c r="E109" s="476"/>
+      <c r="F109" s="476"/>
+      <c r="G109" s="476"/>
+      <c r="H109" s="476"/>
+      <c r="I109" s="476"/>
+      <c r="J109" s="476"/>
+      <c r="K109" s="477"/>
       <c r="L109" s="348"/>
     </row>
-    <row r="110" spans="1:18" ht="76.7" hidden="1" customHeight="1">
-      <c r="A110" s="398"/>
-      <c r="B110" s="399"/>
-      <c r="C110" s="399"/>
-      <c r="D110" s="399"/>
-      <c r="E110" s="399"/>
-      <c r="F110" s="399"/>
-      <c r="G110" s="399"/>
-      <c r="H110" s="399"/>
-      <c r="I110" s="399"/>
-      <c r="J110" s="399"/>
-      <c r="K110" s="400"/>
+    <row r="110" spans="1:18" ht="76.75" hidden="1" customHeight="1">
+      <c r="A110" s="475"/>
+      <c r="B110" s="476"/>
+      <c r="C110" s="476"/>
+      <c r="D110" s="476"/>
+      <c r="E110" s="476"/>
+      <c r="F110" s="476"/>
+      <c r="G110" s="476"/>
+      <c r="H110" s="476"/>
+      <c r="I110" s="476"/>
+      <c r="J110" s="476"/>
+      <c r="K110" s="477"/>
       <c r="L110" s="350"/>
     </row>
-    <row r="111" spans="1:18" ht="80.099999999999994" hidden="1" customHeight="1">
-      <c r="A111" s="407"/>
-      <c r="B111" s="408"/>
-      <c r="C111" s="408"/>
-      <c r="D111" s="408"/>
-      <c r="E111" s="408"/>
-      <c r="F111" s="408"/>
-      <c r="G111" s="408"/>
-      <c r="H111" s="408"/>
-      <c r="I111" s="408"/>
-      <c r="J111" s="408"/>
-      <c r="K111" s="409"/>
+    <row r="111" spans="1:18" ht="80.150000000000006" hidden="1" customHeight="1">
+      <c r="A111" s="465"/>
+      <c r="B111" s="466"/>
+      <c r="C111" s="466"/>
+      <c r="D111" s="466"/>
+      <c r="E111" s="466"/>
+      <c r="F111" s="466"/>
+      <c r="G111" s="466"/>
+      <c r="H111" s="466"/>
+      <c r="I111" s="466"/>
+      <c r="J111" s="466"/>
+      <c r="K111" s="467"/>
       <c r="L111" s="350"/>
       <c r="M111" s="350"/>
       <c r="N111" s="350"/>
@@ -40807,7 +40833,7 @@
       <c r="Q111" s="350"/>
       <c r="R111" s="350"/>
     </row>
-    <row r="112" spans="1:18" ht="17.45" customHeight="1">
+    <row r="112" spans="1:18" ht="17.5" customHeight="1">
       <c r="A112" s="351"/>
       <c r="B112" s="351"/>
       <c r="C112" s="351"/>
@@ -40827,14 +40853,14 @@
       <c r="Q112" s="350"/>
       <c r="R112" s="350"/>
     </row>
-    <row r="113" spans="1:18" s="349" customFormat="1" ht="35.1" hidden="1" customHeight="1">
-      <c r="A113" s="401" t="s">
+    <row r="113" spans="1:18" s="349" customFormat="1" ht="35.15" hidden="1" customHeight="1">
+      <c r="A113" s="473" t="s">
         <v>248</v>
       </c>
-      <c r="B113" s="402"/>
-      <c r="C113" s="402"/>
-      <c r="D113" s="402"/>
-      <c r="E113" s="402"/>
+      <c r="B113" s="474"/>
+      <c r="C113" s="474"/>
+      <c r="D113" s="474"/>
+      <c r="E113" s="474"/>
       <c r="F113" s="345"/>
       <c r="G113" s="345"/>
       <c r="H113" s="345"/>
@@ -40850,19 +40876,19 @@
       <c r="R113" s="353"/>
     </row>
     <row r="114" spans="1:18" ht="42" hidden="1" customHeight="1">
-      <c r="A114" s="403" t="s">
+      <c r="A114" s="478" t="s">
         <v>249</v>
       </c>
-      <c r="B114" s="404"/>
-      <c r="C114" s="404"/>
-      <c r="D114" s="404"/>
-      <c r="E114" s="404"/>
-      <c r="F114" s="404"/>
-      <c r="G114" s="404"/>
-      <c r="H114" s="404"/>
-      <c r="I114" s="404"/>
-      <c r="J114" s="404"/>
-      <c r="K114" s="405"/>
+      <c r="B114" s="479"/>
+      <c r="C114" s="479"/>
+      <c r="D114" s="479"/>
+      <c r="E114" s="479"/>
+      <c r="F114" s="479"/>
+      <c r="G114" s="479"/>
+      <c r="H114" s="479"/>
+      <c r="I114" s="479"/>
+      <c r="J114" s="479"/>
+      <c r="K114" s="480"/>
       <c r="L114" s="350"/>
       <c r="M114" s="350"/>
       <c r="N114" s="350"/>
@@ -40871,7 +40897,7 @@
       <c r="Q114" s="350"/>
       <c r="R114" s="350"/>
     </row>
-    <row r="115" spans="1:18" ht="26.1" hidden="1" customHeight="1">
+    <row r="115" spans="1:18" ht="26.15" hidden="1" customHeight="1">
       <c r="A115" s="354"/>
       <c r="B115" s="354"/>
       <c r="C115" s="354"/>
@@ -40891,14 +40917,14 @@
       <c r="Q115" s="350"/>
       <c r="R115" s="350"/>
     </row>
-    <row r="116" spans="1:18" s="349" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A116" s="401" t="s">
+    <row r="116" spans="1:18" s="349" customFormat="1" ht="35.15" customHeight="1">
+      <c r="A116" s="473" t="s">
         <v>250</v>
       </c>
-      <c r="B116" s="402"/>
-      <c r="C116" s="402"/>
-      <c r="D116" s="402"/>
-      <c r="E116" s="402"/>
+      <c r="B116" s="474"/>
+      <c r="C116" s="474"/>
+      <c r="D116" s="474"/>
+      <c r="E116" s="474"/>
       <c r="F116" s="345"/>
       <c r="G116" s="345"/>
       <c r="H116" s="345"/>
@@ -40913,20 +40939,20 @@
       <c r="Q116" s="355"/>
       <c r="R116" s="355"/>
     </row>
-    <row r="117" spans="1:18" ht="35.1" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A117" s="406" t="s">
+    <row r="117" spans="1:18" ht="35.15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A117" s="481" t="s">
         <v>251</v>
       </c>
-      <c r="B117" s="404"/>
-      <c r="C117" s="404"/>
-      <c r="D117" s="404"/>
-      <c r="E117" s="404"/>
-      <c r="F117" s="404"/>
-      <c r="G117" s="404"/>
-      <c r="H117" s="404"/>
-      <c r="I117" s="404"/>
-      <c r="J117" s="404"/>
-      <c r="K117" s="405"/>
+      <c r="B117" s="479"/>
+      <c r="C117" s="479"/>
+      <c r="D117" s="479"/>
+      <c r="E117" s="479"/>
+      <c r="F117" s="479"/>
+      <c r="G117" s="479"/>
+      <c r="H117" s="479"/>
+      <c r="I117" s="479"/>
+      <c r="J117" s="479"/>
+      <c r="K117" s="480"/>
       <c r="L117" s="356"/>
       <c r="M117" s="350"/>
       <c r="N117" s="350"/>
@@ -40935,20 +40961,20 @@
       <c r="Q117" s="350"/>
       <c r="R117" s="350"/>
     </row>
-    <row r="118" spans="1:18" ht="80.099999999999994" customHeight="1" collapsed="1">
-      <c r="A118" s="403" t="s">
+    <row r="118" spans="1:18" ht="80.150000000000006" customHeight="1" collapsed="1">
+      <c r="A118" s="478" t="s">
         <v>252</v>
       </c>
-      <c r="B118" s="404"/>
-      <c r="C118" s="404"/>
-      <c r="D118" s="404"/>
-      <c r="E118" s="404"/>
-      <c r="F118" s="404"/>
-      <c r="G118" s="404"/>
-      <c r="H118" s="404"/>
-      <c r="I118" s="404"/>
-      <c r="J118" s="404"/>
-      <c r="K118" s="405"/>
+      <c r="B118" s="479"/>
+      <c r="C118" s="479"/>
+      <c r="D118" s="479"/>
+      <c r="E118" s="479"/>
+      <c r="F118" s="479"/>
+      <c r="G118" s="479"/>
+      <c r="H118" s="479"/>
+      <c r="I118" s="479"/>
+      <c r="J118" s="479"/>
+      <c r="K118" s="480"/>
       <c r="L118" s="350"/>
       <c r="M118" s="350"/>
       <c r="N118" s="350"/>
@@ -40958,19 +40984,19 @@
       <c r="R118" s="350"/>
     </row>
     <row r="119" spans="1:18" ht="84" customHeight="1">
-      <c r="A119" s="403" t="s">
+      <c r="A119" s="478" t="s">
         <v>253</v>
       </c>
-      <c r="B119" s="404"/>
-      <c r="C119" s="404"/>
-      <c r="D119" s="404"/>
-      <c r="E119" s="404"/>
-      <c r="F119" s="404"/>
-      <c r="G119" s="404"/>
-      <c r="H119" s="404"/>
-      <c r="I119" s="404"/>
-      <c r="J119" s="404"/>
-      <c r="K119" s="405"/>
+      <c r="B119" s="479"/>
+      <c r="C119" s="479"/>
+      <c r="D119" s="479"/>
+      <c r="E119" s="479"/>
+      <c r="F119" s="479"/>
+      <c r="G119" s="479"/>
+      <c r="H119" s="479"/>
+      <c r="I119" s="479"/>
+      <c r="J119" s="479"/>
+      <c r="K119" s="480"/>
       <c r="L119" s="350"/>
       <c r="M119" s="350"/>
       <c r="N119" s="350"/>
@@ -40980,19 +41006,19 @@
       <c r="R119" s="350"/>
     </row>
     <row r="120" spans="1:18" ht="150" customHeight="1">
-      <c r="A120" s="398" t="s">
+      <c r="A120" s="475" t="s">
         <v>254</v>
       </c>
-      <c r="B120" s="399"/>
-      <c r="C120" s="399"/>
-      <c r="D120" s="399"/>
-      <c r="E120" s="399"/>
-      <c r="F120" s="399"/>
-      <c r="G120" s="399"/>
-      <c r="H120" s="399"/>
-      <c r="I120" s="399"/>
-      <c r="J120" s="399"/>
-      <c r="K120" s="400"/>
+      <c r="B120" s="476"/>
+      <c r="C120" s="476"/>
+      <c r="D120" s="476"/>
+      <c r="E120" s="476"/>
+      <c r="F120" s="476"/>
+      <c r="G120" s="476"/>
+      <c r="H120" s="476"/>
+      <c r="I120" s="476"/>
+      <c r="J120" s="476"/>
+      <c r="K120" s="477"/>
       <c r="L120"/>
       <c r="M120" s="357"/>
       <c r="N120" s="357"/>
@@ -41001,12 +41027,74 @@
       <c r="Q120" s="357"/>
       <c r="R120" s="357"/>
     </row>
-    <row r="121" spans="1:18" ht="12">
+    <row r="121" spans="1:18" ht="14.5">
       <c r="M121" s="357"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="76">
+    <mergeCell ref="A120:K120"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:K114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:K117"/>
+    <mergeCell ref="A118:K118"/>
+    <mergeCell ref="A119:K119"/>
+    <mergeCell ref="A111:K111"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A109:K109"/>
+    <mergeCell ref="A110:K110"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="S77:S78"/>
+    <mergeCell ref="U77:U78"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="F28:H28"/>
@@ -41021,68 +41109,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="S77:S78"/>
-    <mergeCell ref="U77:U78"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="A111:K111"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A109:K109"/>
-    <mergeCell ref="A110:K110"/>
-    <mergeCell ref="A120:K120"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:K114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:K117"/>
-    <mergeCell ref="A118:K118"/>
-    <mergeCell ref="A119:K119"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
@@ -41125,7 +41151,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
@@ -41141,152 +41167,199 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D4532F-1CFA-4BE0-A377-CD7C0FF00191}">
-  <dimension ref="B2:D24"/>
+  <dimension ref="B1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.75" style="365"/>
     <col min="2" max="2" width="11.75" style="365" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="365" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="365" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="365" customWidth="1"/>
     <col min="5" max="16384" width="8.75" style="365"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="482" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="482" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="482" t="s">
+        <v>418</v>
+      </c>
+    </row>
     <row r="2" spans="2:4">
       <c r="B2" s="365" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="365" t="s">
         <v>387</v>
-      </c>
-      <c r="C2" s="365" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="3" spans="2:4">
+      <c r="B3" s="365" t="s">
+        <v>421</v>
+      </c>
       <c r="C3" s="365" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="2:4">
+      <c r="B4" s="365" t="s">
+        <v>421</v>
+      </c>
       <c r="C4" s="365" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="365" t="s">
         <v>390</v>
-      </c>
-      <c r="D4" s="365" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="365" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="365" t="s">
         <v>392</v>
-      </c>
-      <c r="C5" s="365" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="6" spans="2:4">
+      <c r="B6" s="365" t="s">
+        <v>422</v>
+      </c>
       <c r="C6" s="365" t="s">
         <v>262</v>
       </c>
       <c r="D6" s="365" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="2:4">
+      <c r="B7" s="365" t="s">
+        <v>422</v>
+      </c>
       <c r="C7" s="365" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="2:4">
+      <c r="B8" s="365" t="s">
+        <v>422</v>
+      </c>
       <c r="C8" s="365" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" s="365" t="s">
         <v>396</v>
-      </c>
-      <c r="D8" s="365" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="365" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" s="365" t="s">
         <v>398</v>
-      </c>
-      <c r="C9" s="365" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="365" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C10" s="365" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="349" customFormat="1">
+      <c r="B11" s="365" t="s">
+        <v>419</v>
+      </c>
       <c r="C11" s="349" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="2:4">
+      <c r="B12" s="365" t="s">
+        <v>419</v>
+      </c>
       <c r="C12" s="365" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="365" t="s">
+        <v>402</v>
+      </c>
+      <c r="C13" s="365" t="s">
         <v>403</v>
-      </c>
-      <c r="C13" s="365" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="14" spans="2:4">
+      <c r="B14" s="365" t="s">
+        <v>423</v>
+      </c>
       <c r="C14" s="365" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="365" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="365" t="s">
         <v>406</v>
-      </c>
-      <c r="C15" s="365" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="16" spans="2:4">
+      <c r="B16" s="365" t="s">
+        <v>424</v>
+      </c>
       <c r="C16" s="365" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="365" t="s">
         <v>408</v>
-      </c>
-      <c r="D16" s="365" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="17" spans="2:4">
+      <c r="B17" s="365" t="s">
+        <v>424</v>
+      </c>
       <c r="C17" s="365" t="s">
+        <v>409</v>
+      </c>
+      <c r="D17" s="365" t="s">
         <v>410</v>
-      </c>
-      <c r="D17" s="365" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="18" spans="2:4">
+      <c r="B18" s="365" t="s">
+        <v>424</v>
+      </c>
       <c r="C18" s="365" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="2:4">
+      <c r="B19" s="365" t="s">
+        <v>424</v>
+      </c>
       <c r="C19" s="365" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="365" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="365" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
